--- a/msg/text/Messages.xlsx
+++ b/msg/text/Messages.xlsx
@@ -21,9 +21,9 @@
     <t>TJSInternalError</t>
   </si>
   <si>
-    <t>定義</t>
+    <t>Definition</t>
     <rPh sb="0" eb="2">
-      <t>テイギ</t>
+      <t>Teigi</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -202,204 +202,204 @@
     <t>TJSByteCodeBroken</t>
   </si>
   <si>
-    <t>内部エラーが発生しました</t>
-  </si>
-  <si>
-    <t xml:space="preserve">警告: </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グローバルでない場所で後置 ! 演算子が使われています(この演算子の挙動はTJS2 version 2.4.1 で変わりましたのでご注意ください)</t>
-  </si>
-  <si>
-    <t>%1 から %2 へ型を変換できません</t>
-  </si>
-  <si>
-    <t>%1 から Object へ型を変換できません。Object 型が要求される文脈で Object 型以外の値が渡されるとこのエラーが発生します</t>
-  </si>
-  <si>
-    <t>識別子を指定してください</t>
-  </si>
-  <si>
-    <t>論理値が求められている場所で = 演算子が使用されています(== 演算子の間違いですか？代入した上でゼロと値を比較したい場合は、(A=B) != 0 の形式を使うことをお勧めします)</t>
-  </si>
-  <si>
-    <t>不正な代入か不正な式の操作です</t>
-  </si>
-  <si>
-    <t>メモリが足りません</t>
-  </si>
-  <si>
-    <t>この式からは値を得ることができません</t>
-  </si>
-  <si>
-    <t>null オブジェクトにアクセスしようとしました</t>
-  </si>
-  <si>
-    <t>メンバ \"%1\" が見つかりません</t>
-  </si>
-  <si>
-    <t>メンバが見つかりません</t>
-  </si>
-  <si>
-    <t>呼び出そうとした機能は未実装です</t>
-  </si>
-  <si>
-    <t>不正な引数です</t>
-  </si>
-  <si>
-    <t>引数の数が不正です</t>
-  </si>
-  <si>
-    <t>関数ではないかプロパティの種類が違います</t>
-  </si>
-  <si>
-    <t>Dictionary または Array クラスのオブジェクトを指定してください</t>
-  </si>
-  <si>
-    <t>Array クラスのオブジェクトを指定してください</t>
-  </si>
-  <si>
-    <t>文字列メモリブロックを解放できません</t>
-  </si>
-  <si>
-    <t>文字列メモリブロックを確保できません</t>
-  </si>
-  <si>
-    <t>\"break\" または \"continue\" はここに書くことはできません</t>
-  </si>
-  <si>
-    <t>\"case\" はここに書くことはできません</t>
-  </si>
-  <si>
-    <t>\"return\" はここに書くことはできません</t>
-  </si>
-  <si>
-    <t>文字列定数/正規表現/オクテット即値が終わらないままスクリプトの終端に達しました</t>
-  </si>
-  <si>
-    <t>数値として解釈できません</t>
-  </si>
-  <si>
-    <t>コメントが終わらないままスクリプトの終端に達しました</t>
-  </si>
-  <si>
-    <t>不正な文字です : \'%1\'</t>
-  </si>
-  <si>
-    <t>%1 がありません</t>
-  </si>
-  <si>
-    <t>文法エラーです(%1)</t>
-  </si>
-  <si>
-    <t>条件コンパイル式にエラーがあります</t>
-  </si>
-  <si>
-    <t>スーパークラスが存在しないかスーパークラスを特定できません</t>
-  </si>
-  <si>
-    <t>不正な VM コードです</t>
-  </si>
-  <si>
-    <t>値が範囲外です</t>
-  </si>
-  <si>
-    <t>読み込み専用あるいは書き込み専用プロパティに対して行えない操作をしようとしました</t>
-  </si>
-  <si>
-    <t>実行コンテキストが違います</t>
-  </si>
-  <si>
-    <t>オブジェクトはすでに無効化されています</t>
-  </si>
-  <si>
-    <t>\"...\" は関数外では使えません</t>
-  </si>
-  <si>
-    <t>不正な日付文字列の形式です</t>
-  </si>
-  <si>
-    <t>不正な日付・時刻です</t>
-  </si>
-  <si>
-    <t>\"Exception\" が存在しないため例外オブジェクトを作成できません</t>
-  </si>
-  <si>
-    <t>不正な書式文字列です</t>
-  </si>
-  <si>
-    <t>0 で除算をしようとしました</t>
-  </si>
-  <si>
-    <t>乱数系列を初期化できません(おそらく不正なデータが渡されました)</t>
-  </si>
-  <si>
-    <t>識別子</t>
-  </si>
-  <si>
-    <t>[TJSスクリプト管理外]</t>
-  </si>
-  <si>
-    <t>合計 %1 個のオブジェクトが解放されていません</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\r\n                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n                     </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト %1 [%2] が解放されていません。オブジェクト作成時の呼び出し履歴は以下の通りです:\r\n                     %3</t>
-  </si>
-  <si>
-    <t>オブジェクト %1 [%2] が解放されていません。オブジェクト作成時の呼び出し履歴は以下の通りです:\n                     %3</t>
-  </si>
-  <si>
-    <t>オブジェクトのタイプとオブジェクト作成時の履歴による分類</t>
-  </si>
-  <si>
-    <t>オブジェクトのタイプによる分類</t>
-  </si>
-  <si>
-    <t>%1 個 : [%2]\r\n                     %3</t>
-  </si>
-  <si>
-    <t>%1 個 : [%2]\n                     %3</t>
-  </si>
-  <si>
-    <t>%1 個 : [%2]</t>
-  </si>
-  <si>
-    <t>%4: 削除中のオブジェクト %1[%2] 上でコードが実行されています。このオブジェクトの作成時の呼び出し履歴は以下の通りです:\r\n                     %3</t>
-  </si>
-  <si>
-    <t>%4: 削除中のオブジェクト %1[%2] 上でコードが実行されています。このオブジェクトの作成時の呼び出し履歴は以下の通りです:\n                     %3</t>
-  </si>
-  <si>
-    <t>書き込みエラーが発生しました</t>
-  </si>
-  <si>
-    <t>読み込みエラーが発生しました。ファイルが破損している可能性や、デバイスからの読み込みに失敗した可能性があります</t>
-  </si>
-  <si>
-    <t>シークエラーが発生しました。ファイルが破損している可能性や、デバイスからの読み込みに失敗した可能性があります</t>
-  </si>
-  <si>
-    <t>バイトコードファイル読み込みエラー。ファイルが壊れているかバイトコードとは異なるファイルです</t>
-  </si>
-  <si>
-    <t>日本語</t>
+    <t>An internal error has occurred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warning: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The postfix! Operator is used in a non-global location (note that the behavior of this operator changed in TJS2 version 2.4.1)</t>
+  </si>
+  <si>
+    <t>Cannot convert type from %1 to %2</t>
+  </si>
+  <si>
+    <t>Cannot convert type from %1 to Object. I get this error when a value other than Object is passed in a context where Object is required</t>
+  </si>
+  <si>
+    <t>Please specify an identifier</t>
+  </si>
+  <si>
+    <t>The = operator is used where a boolean is expected (is the == operator wrong? If you want to make a substitution and then compare the value to zero, you would have the form (A=B) != 0 Is recommended)</t>
+  </si>
+  <si>
+    <t>Illegal assignment or illegal expression operation</t>
+  </si>
+  <si>
+    <t>Not enough memory</t>
+  </si>
+  <si>
+    <t>No value can be obtained from this expression</t>
+  </si>
+  <si>
+    <t>Tried to access null object</t>
+  </si>
+  <si>
+    <t>Member \"%1\" not found</t>
+  </si>
+  <si>
+    <t>Member not found</t>
+  </si>
+  <si>
+    <t>The function you tried to call is not yet implemented</t>
+  </si>
+  <si>
+    <t>Invalid argument</t>
+  </si>
+  <si>
+    <t>Invalid number of arguments</t>
+  </si>
+  <si>
+    <t>Not a function or different type of property</t>
+  </si>
+  <si>
+    <t>Specify an object of Dictionary or Array class</t>
+  </si>
+  <si>
+    <t>Please specify an object of Array class</t>
+  </si>
+  <si>
+    <t>Unable to free string memory block</t>
+  </si>
+  <si>
+    <t>Cannot allocate string memory block</t>
+  </si>
+  <si>
+    <t>\"break\" or \"continue\" cannot be written here</t>
+  </si>
+  <si>
+    <t>\"case\" cannot be written here</t>
+  </si>
+  <si>
+    <t>\"return\" cannot be written here</t>
+  </si>
+  <si>
+    <t>The end of the script was reached without ending the string constant/regular expression/octet immediate</t>
+  </si>
+  <si>
+    <t>Cannot be interpreted as a number</t>
+  </si>
+  <si>
+    <t>Reached the end of the script without commenting</t>
+  </si>
+  <si>
+    <t>Illegal character: \'%1\'</t>
+  </si>
+  <si>
+    <t>%1 is missing</t>
+  </si>
+  <si>
+    <t>Syntax error (%1)</t>
+  </si>
+  <si>
+    <t>Error in conditional compilation expression</t>
+  </si>
+  <si>
+    <t>Superclass does not exist or cannot be identified</t>
+  </si>
+  <si>
+    <t>Bad VM code</t>
+  </si>
+  <si>
+    <t>Value out of range</t>
+  </si>
+  <si>
+    <t>You tried to perform an operation that cannot be performed on a read-only or write-only property.</t>
+  </si>
+  <si>
+    <t>Execution context is different</t>
+  </si>
+  <si>
+    <t>Object already invalidated</t>
+  </si>
+  <si>
+    <t>\"...\" cannot be used outside a function</t>
+  </si>
+  <si>
+    <t>Bad date string format</t>
+  </si>
+  <si>
+    <t>Invalid date/time</t>
+  </si>
+  <si>
+    <t>Cannot create exception object because \"Exception\" does not exist</t>
+  </si>
+  <si>
+    <t>Illegal format string</t>
+  </si>
+  <si>
+    <t>Tried to divide by 0</t>
+  </si>
+  <si>
+    <t>Unable to initialize random number sequence (probably bad data passed)</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>[Outside TJS script management]</t>
+  </si>
+  <si>
+    <t>%1 total objects have not been released</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\r\n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object %1 [%2] has not been released. The call stack when creating an object is as follows:\r\n %3</t>
+  </si>
+  <si>
+    <t>Object %1 [%2] has not been released. The call stack when creating an object is as follows:\n %3</t>
+  </si>
+  <si>
+    <t>Classification by object type and history of object creation</t>
+  </si>
+  <si>
+    <t>Classification by object type</t>
+  </si>
+  <si>
+    <t>%1 :[%2]\r\n %3</t>
+  </si>
+  <si>
+    <t>%1 :[%2]\n %3</t>
+  </si>
+  <si>
+    <t>%1 :[%2]</t>
+  </si>
+  <si>
+    <t>%4: Code is running on object %1[%2] being deleted. The call stack when creating this object is: \r\n %3</t>
+  </si>
+  <si>
+    <t>%4: Code is running on object %1[%2] being deleted. The call stack when creating this object is:\n %3</t>
+  </si>
+  <si>
+    <t>A write error has occurred</t>
+  </si>
+  <si>
+    <t>A read error has occurred. The file may be corrupted or may have failed to load from the device</t>
+  </si>
+  <si>
+    <t>A seek error has occurred. The file may be corrupted or may have failed to load from the device</t>
+  </si>
+  <si>
+    <t>Bytecode file read error. File is corrupted or is different from bytecode</t>
+  </si>
+  <si>
+    <t>Japanese</t>
     <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>英語</t>
+      <t>Japango</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>English</t>
     <rPh sb="0" eb="2">
-      <t>エイゴ</t>
+      <t>Eigo</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -425,7 +425,7 @@
     <t>Specify an ID</t>
   </si>
   <si>
-    <t>Substitution in boolean context (use form of '(A=B)!=0' to compare to zero)</t>
+    <t>Substitution in boolean context (use form of'(A=B)!=0' to compare to zero)</t>
   </si>
   <si>
     <t>This expression cannot be used as a lvalue</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve"> &lt;-- </t>
   </si>
   <si>
-    <t>Object %1 [%2] wes not freed / The object was created at : %2</t>
+    <t>Object %1 [%2] wes not freed / The object was created at: %2</t>
   </si>
   <si>
     <t>Group by object type and location where the object was created</t>
@@ -560,13 +560,13 @@
     <t>Group by object type</t>
   </si>
   <si>
-    <t>%1 time(s) : [%2] %3</t>
-  </si>
-  <si>
-    <t>%1 time(s) : [%2]</t>
-  </si>
-  <si>
-    <t>%4: Running code on deleting-in-progress object %1[%2] / The object was created at : %3</t>
+    <t>%1 time(s): [%2] %3</t>
+  </si>
+  <si>
+    <t>%1 time(s): [%2]</t>
+  </si>
+  <si>
+    <t>%4: Running code on deleting-in-progress object %1[%2] / The object was created at :%3</t>
   </si>
   <si>
     <t>Write error</t>
@@ -578,7 +578,7 @@
     <t>Seek error</t>
   </si>
   <si>
-    <t>Bytecode read error. File is broken or it's not bytecode file.</t>
+    <t>Bytecode read error.File is broken or it's not bytecode file.</t>
   </si>
   <si>
     <t>Object Hash Map log version mismatch</t>
@@ -587,26 +587,26 @@
     <t>Currupted Object Hash Map log</t>
   </si>
   <si>
-    <t>不正な Object Hash Map ログ</t>
+    <t>Bad Object Hash Map log</t>
     <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Object Hash Map ログのバージョンが一致しません</t>
+      <t>Fusei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object Hash Map log version mismatch</t>
     <rPh sb="25" eb="27">
-      <t>イッチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unknown failure : %08X</t>
-  </si>
-  <si>
-    <t>未知のエラー %08X</t>
+      <t>Itch</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown failure: %08X</t>
+  </si>
+  <si>
+    <t>Unknown error %08X</t>
     <rPh sb="0" eb="2">
-      <t>ミチ</t>
+      <t>Michi</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -623,14 +623,14 @@
     <t>Not supported BER</t>
   </si>
   <si>
-    <t>BER圧縮はサポートしていません</t>
+    <t>BER compression is not supported</t>
     <rPh sb="3" eb="5">
-      <t>アッシュク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uuencode はサポートしていません</t>
+      <t>Ashku</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uuencode is not supported</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -644,43 +644,43 @@
     <t>Not supported unpack \'P\'</t>
   </si>
   <si>
-    <t>\'p\' unpack はサポートしていません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\'P\' unpack はサポートしていません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明な pack/unpack TEMPLATE 文字です</t>
+    <t>\'p\' unpack is not supported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\'P\' unpack is not supported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown pack/unpack TEMPLATE character</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="25" eb="27">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明な bit string 文字です</t>
+      <t>Moji</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown bit string character</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明な16進数文字です</t>
+      <t>Moji</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown hexadecimal character</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>シンスウ</t>
+      <t>Shinsu</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>モジ</t>
+      <t>Moji</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -953,283 +953,283 @@
     <t>TVPVersionInformation</t>
   </si>
   <si>
-    <t>吉里吉里[きりきり] Z 実行コア/%1 (Compiled on %DATE% %TIME%) TJS2/%2 Copyright (C) 1997-2013 W.Dee and contributors All rights reserved.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バージョン情報の詳細は -about を付けて起動すると閲覧できます</t>
+    <t>Kirikiri [Kirikiri] Z Execution Core/%1 (Compiled on %DATE% %TIME%) TJS2/%2 Copyright (C) 1997-2013 W.Dee and contributors All rights reserved.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Detailed version information can be viewed by launching with -about</t>
     <rPh sb="20" eb="21">
-      <t>ツ</t>
+      <t>Tsu</t>
     </rPh>
     <rPh sb="23" eb="25">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内部エラーが発生しました: at %1 line %2</t>
-  </si>
-  <si>
-    <t>不正なパラメータです</t>
-  </si>
-  <si>
-    <t>コマンドラインパラメータ %1 に指定された値 %2 は無効のためデフォルトの設定を用います</t>
-  </si>
-  <si>
-    <t>コマンドラインパラメータ %1 に指定された値 %2 は無効です</t>
-  </si>
-  <si>
-    <t>-debug オプションが指定されているため,現在 吉里吉里はデバッグモードで動作しています。デバッグモードでは十分な実行速度が出ない場合があるので注意してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未実装の機能を呼び出そうとしました</t>
-  </si>
-  <si>
-    <t>ストレージ %1 を開くことができません</t>
-  </si>
-  <si>
-    <t>ストレージ %1 が見つかりません</t>
-  </si>
-  <si>
-    <t>ストレージ %1 を書き込み用に開くことができません。ファイルが書き込み禁止になっていないか、あるいはファイルに書き込み権限があるかどうか、あるいはそもそもそれが書き込み可能なメディアやファイルなのかを確認してください</t>
-  </si>
-  <si>
-    <t>ストレージ %1 がアーカイブ %2 の中に見つかりません</t>
-  </si>
-  <si>
-    <t>パス名 %1 は無効な形式です。形式が正しいかどうかを確認してください</t>
-  </si>
-  <si>
-    <t>\"%1\" は対応していないメディアタイプです</t>
-  </si>
-  <si>
-    <t>%1 は実行可能ファイルに見えますが、これに結合されたアーカイブを発見できませんでした</t>
-  </si>
-  <si>
-    <t>%1 は XP3 アーカイブではないか、対応できない形式です。アーカイブファイルを指定すべき場面で通常のファイルを指定した場合、あるいは対応できないアーカイブファイルを指定した場合などにこのエラーが発生しますので、確認してください</t>
-  </si>
-  <si>
-    <t>パス名の最後には '&gt;' または '/' を指定してください (吉里吉里２ 2.19 beta 14 よりアーカイブの区切り記号が '#' から '&gt;' に変わりました)</t>
-  </si>
-  <si>
-    <t>(注意) '#' がファイル名 \"%1\" に含まれています。アーカイブの区切り文字は吉里吉里２ 2.19 beta 14 より'#' から '&gt;' に変わりました。もしアーカイブの区切り文字のつもりで '#' を使用した場合は、お手数ですが '&gt;' に変えてください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ストレージ名 %1 をローカルファイル名に変換できません。アーカイブファイル内のファイルや、ローカルファイルでないファイルはローカルファイル名に変換できません。</t>
-  </si>
-  <si>
-    <t>読み込みエラーです。ファイルが破損している可能性や、デバイスからの読み込みに失敗した可能性があります</t>
-  </si>
-  <si>
-    <t>書き込みエラーです</t>
-  </si>
-  <si>
-    <t>シークに失敗しました。ファイルが破損している可能性や、デバイスからの読み込みに失敗した可能性があります</t>
-  </si>
-  <si>
-    <t>ファイルの長さを切り詰めるのに失敗しました</t>
-  </si>
-  <si>
-    <t>メモリ確保に失敗しました。</t>
-  </si>
-  <si>
-    <t>ファイルの展開に失敗しました。未対応の圧縮形式が指定されたか、あるいはファイルが破損している可能性があります</t>
-  </si>
-  <si>
-    <t>ファイルの圧縮に失敗しました</t>
-  </si>
-  <si>
-    <t>アーカイブにデータを書き込むことはできません</t>
-  </si>
-  <si>
-    <t>%1 は未対応の暗号化形式か、データが破損しています</t>
-  </si>
-  <si>
-    <t>%1 は未対応のエンコード方式です。</t>
-  </si>
-  <si>
-    <t>認識できないモード文字列の指定です(%1)</t>
-  </si>
-  <si>
-    <t>%1 は未知の画像形式です</t>
-  </si>
-  <si>
-    <t>%1 について適切な拡張子を持ったファイルを見つけられませんでした</t>
-  </si>
-  <si>
-    <t>マスク画像のサイズがメイン画像のサイズと違います</t>
-  </si>
-  <si>
-    <t>領域画像 %1 はメイン画像とサイズが違います</t>
-  </si>
-  <si>
-    <t>画像読み込み中にエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>JPEG 読み込み中にエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>PNG 読み込み中にエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>ERI 読み込み中にエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>TLG 読み込み中にエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>無効な保存画像形式です(%1)</t>
-  </si>
-  <si>
-    <t>8bpp 画像に対しては行えない操作を行おうとしました</t>
-  </si>
-  <si>
-    <t>32bpp 画像に対しては行えない操作を行おうとしました</t>
-  </si>
-  <si>
-    <t>Window クラスのオブジェクトを指定してください</t>
-  </si>
-  <si>
-    <t>Layer クラスのオブジェクトを指定してください</t>
-  </si>
-  <si>
-    <t>画像サイズの横幅あるいは縦幅を 0 以下の数に設定することはできません</t>
-  </si>
-  <si>
-    <t>プライマリレイヤは不可視にできません</t>
-  </si>
-  <si>
-    <t>プライマリレイヤは移動できません</t>
-  </si>
-  <si>
-    <t>自分自身を親とすることはできません</t>
-  </si>
-  <si>
-    <t>自分自身の前後や親の異なるレイヤの前後に移動することはできません</t>
-  </si>
-  <si>
-    <t>プライマリレイヤや兄弟の無いレイヤは前後に移動することはできません</t>
-  </si>
-  <si>
-    <t>別のプライマリレイヤ下にレイヤを移動することはできません</t>
-  </si>
-  <si>
-    <t>レイヤ領域に画像の無い領域が発生しました</t>
-  </si>
-  <si>
-    <t>すでにモーダルなレイヤの親レイヤ、あるいは不可視/無効なレイヤをモーダルにすることはできません</t>
-  </si>
-  <si>
-    <t>この type のレイヤでは描画や画像読み込みや画像サイズ/位置の変更/取得はできません</t>
-  </si>
-  <si>
-    <t>転送元レイヤは画像を持っていません</t>
-  </si>
-  <si>
-    <t>%1 はこの type のレイヤでは使用できません</t>
-  </si>
-  <si>
-    <t>%1 ではこの face に描画できません</t>
-  </si>
-  <si>
-    <t>指定されたレイヤタイプ変換はできません</t>
-  </si>
-  <si>
-    <t>負の不透明度はこの face では指定できません</t>
-  </si>
-  <si>
-    <t>転送元がビットマップ外の領域を含んでいます。正しい範囲に収まるように転送元を指定してください</t>
-  </si>
-  <si>
-    <t>矩形ブラーの範囲は必ず(0,0)をその中に含む必要があります。leftとrightが両方とも正の数値、あるいは両方とも負の数値という指定はできません(topとbottomに対しても同様)</t>
-  </si>
-  <si>
-    <t>矩形ブラーの範囲が大きすぎます。矩形ブラーの範囲は1677万以下である必要があります</t>
-  </si>
-  <si>
-    <t>フォーカス変更処理中はフォーカスを新たに変更することはできません</t>
-  </si>
-  <si>
-    <t>ウィンドウにレイヤがありません</t>
-  </si>
-  <si>
-    <t>ウィンドウにはすでにプライマリレイヤがあります</t>
-  </si>
-  <si>
-    <t>イベント %1 にはパラメータが必要です</t>
-  </si>
-  <si>
-    <t>イベント %1 にはパラメータ %2 が必要です</t>
-  </si>
-  <si>
-    <t>イベント名 %1 は未知のイベント名です</t>
-  </si>
-  <si>
-    <t>矩形外を指定されました</t>
-  </si>
-  <si>
-    <t>画面更新中はこの機能を実行できません</t>
-  </si>
-  <si>
-    <t>このクラスはインスタンスを作成できません</t>
-  </si>
-  <si>
-    <t>%1 は対応できない Wave 形式です</t>
-  </si>
-  <si>
-    <t>現在のトランジションを停止させてから新しいトランジションを開始してください。同じレイヤに対して複数のトランジションを同時に実行しようとするとこのエラーが発生します</t>
-  </si>
-  <si>
-    <t>トランジションハンドラでエラーが発生しました : %1</t>
-  </si>
-  <si>
-    <t>トランジション %1 は既に登録されています</t>
-  </si>
-  <si>
-    <t>トランジションハンドラ %1 が見つかりません</t>
-  </si>
-  <si>
-    <t>トランジション元を指定してください</t>
-  </si>
-  <si>
-    <t>このレイヤは画像を持つことはできません</t>
-  </si>
-  <si>
-    <t>トランジション元とトランジション先はともに画像を持っている必要があります</t>
-  </si>
-  <si>
-    <t>ルール画像 %1 を読み込むことができません</t>
-  </si>
-  <si>
-    <t>オプション %1 を指定してください</t>
-  </si>
-  <si>
-    <t>トランジション元(%1)とトランジション先(%2)のレイヤのサイズが一致しません</t>
-  </si>
-  <si>
-    <t>トランジション元のトランジション元が自分自身です</t>
-  </si>
-  <si>
-    <t>警告 : メソッド %1 の %2 番目に渡された hda パラメータは、吉里吉里２ 2.23 beta 2 より無視されるようになりました。代わりに Layer.holdAlpha プロパティを用いてください。</t>
-  </si>
-  <si>
-    <t>複数の WaveSoundBuffer を一つのフィルタで同時に使用することはできません</t>
-  </si>
-  <si>
-    <t>window は 64～32768 の範囲の 2 の累乗で無ければなりません</t>
-  </si>
-  <si>
-    <t>overlap は 2～32 の範囲の 2 の累乗で無ければなりません</t>
+      <t>Kido</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An internal error has occurred: at %1 line %2</t>
+  </si>
+  <si>
+    <t>Illegal parameter</t>
+  </si>
+  <si>
+    <t>The value %2 specified in the command line parameter %1 is invalid and the default setting is used.</t>
+  </si>
+  <si>
+    <t>Value %2 specified for command line parameter %1 is invalid</t>
+  </si>
+  <si>
+    <t>Kirikiri is currently operating in debug mode because the -debug option is specified. Please note that it may not run fast enough in debug mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tried to call an unimplemented function</t>
+  </si>
+  <si>
+    <t>Unable to open storage %1</t>
+  </si>
+  <si>
+    <t>Storage %1 not found</t>
+  </si>
+  <si>
+    <t>Unable to open storage %1 for writing. Check if the file is write-protected, or if the file has write permission, or if it is a writable media or file in the first place</t>
+  </si>
+  <si>
+    <t>Storage %1 not found in archive %2</t>
+  </si>
+  <si>
+    <t>The path name %1 has an invalid format. Check if the format is correct</t>
+  </si>
+  <si>
+    <t>\"%1\" is an unsupported media type</t>
+  </si>
+  <si>
+    <t>%1 looks like an executable, but could not find the archive associated with it</t>
+  </si>
+  <si>
+    <t>%1 is not an XP3 archive or is in an unsupported format. This error will occur if you specify a normal file when you should specify an archive file, or if you specify an archive file that cannot be supported, so please check.</t>
+  </si>
+  <si>
+    <t>Please specify'&gt;' or'/' at the end of the path name (from Kiriyoshi 2 2.19 beta 14 the archive delimiter changed from'#' to'&gt;').</t>
+  </si>
+  <si>
+    <t>(Note)'#' is included in the file name \"%1\". The archive delimiter has changed from'#' to'&gt;' in Kirikiri 2.19 beta 14. If you used'#' to mean archive delimiter, please change it to'&gt;'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unable to translate storage name %1 to local file name. Files in archive files and files that are not local files cannot be converted to local file names.</t>
+  </si>
+  <si>
+    <t>There is a read error. The file may be corrupted or may have failed to load from the device</t>
+  </si>
+  <si>
+    <t>Write error</t>
+  </si>
+  <si>
+    <t>Seek failed. The file may be corrupted or may have failed to load from the device</t>
+  </si>
+  <si>
+    <t>Failed to truncate file length</t>
+  </si>
+  <si>
+    <t>Memory allocation failed.</t>
+  </si>
+  <si>
+    <t>Failed to expand the file. An unsupported compression format was specified or the file may be corrupted</t>
+  </si>
+  <si>
+    <t>File compression failed</t>
+  </si>
+  <si>
+    <t>Cannot write data to archive</t>
+  </si>
+  <si>
+    <t>%1 is an unsupported encrypted format or data is corrupted</t>
+  </si>
+  <si>
+    <t>%1 is an unsupported encoding method.</t>
+  </si>
+  <si>
+    <t>Unrecognized mode string specification (%1)</t>
+  </si>
+  <si>
+    <t>%1 is an unknown image format</t>
+  </si>
+  <si>
+    <t>Could not find file with proper extension for %1</t>
+  </si>
+  <si>
+    <t>The size of the mask image is different from the size of the main image</t>
+  </si>
+  <si>
+    <t>Area image %1 is different in size from the main image</t>
+  </si>
+  <si>
+    <t>An error occurred while loading the image/%1</t>
+  </si>
+  <si>
+    <t>An error occurred while reading the JPEG/%1</t>
+  </si>
+  <si>
+    <t>An error occurred while loading the PNG/%1</t>
+  </si>
+  <si>
+    <t>An error occurred while reading the ERI/%1</t>
+  </si>
+  <si>
+    <t>Error loading TLG/%1</t>
+  </si>
+  <si>
+    <t>Invalid saved image format (%1)</t>
+  </si>
+  <si>
+    <t>I tried to do something I can't do on an 8bpp image</t>
+  </si>
+  <si>
+    <t>I tried to do something I can't do on a 32bpp image</t>
+  </si>
+  <si>
+    <t>Please specify an object of Window class</t>
+  </si>
+  <si>
+    <t>Specify an object of Layer class</t>
+  </si>
+  <si>
+    <t>The width or height of the image size cannot be set to a number less than 0</t>
+  </si>
+  <si>
+    <t>Primary layer cannot be invisible</t>
+  </si>
+  <si>
+    <t>Primary layer cannot be moved</t>
+  </si>
+  <si>
+    <t>You cannot have yourself as a parent</t>
+  </si>
+  <si>
+    <t>You cannot move before or after yourself or before or after a layer with a different parent</t>
+  </si>
+  <si>
+    <t>The primary layer and layers without siblings cannot be moved back and forth</t>
+  </si>
+  <si>
+    <t>Cannot move layer below another primary layer</t>
+  </si>
+  <si>
+    <t>An area with no image has occurred in the layer area</t>
+  </si>
+  <si>
+    <t>You cannot make a parent layer of an already modal layer, or an invisible/invalid layer modal</t>
+  </si>
+  <si>
+    <t>This type of layer cannot draw, read image, change/get image size/position</t>
+  </si>
+  <si>
+    <t>Source layer does not have an image</t>
+  </si>
+  <si>
+    <t>%1 cannot be used in a layer of this type</t>
+  </si>
+  <si>
+    <t>%1 cannot draw on this face</t>
+  </si>
+  <si>
+    <t>Cannot convert the specified layer type</t>
+  </si>
+  <si>
+    <t>Negative opacity cannot be specified with this face</t>
+  </si>
+  <si>
+    <t>The transfer source includes an area outside the bitmap. Please specify the transfer source so that it falls within the correct range</t>
+  </si>
+  <si>
+    <t>The range of the rectangular blur must always contain (0,0) in it. You cannot specify that left and right are both positive numbers, or both are negative numbers (the same applies to top and bottom).</t>
+  </si>
+  <si>
+    <t>The range of the rectangular blur is too large. Rectangular blur range must be less than 16.77 million</t>
+  </si>
+  <si>
+    <t>The focus cannot be changed during the focus change process.</t>
+  </si>
+  <si>
+    <t>Window has no layers</t>
+  </si>
+  <si>
+    <t>Window already has a primary layer</t>
+  </si>
+  <si>
+    <t>Event %1 requires a parameter</t>
+  </si>
+  <si>
+    <t>Event %1 requires parameter %2</t>
+  </si>
+  <si>
+    <t>Event name %1 is an unknown event name</t>
+  </si>
+  <si>
+    <t>Specified outside the rectangle</t>
+  </si>
+  <si>
+    <t>This function cannot be executed during screen update</t>
+  </si>
+  <si>
+    <t>This class cannot be instantiated</t>
+  </si>
+  <si>
+    <t>%1 is a Wave format that cannot be supported</t>
+  </si>
+  <si>
+    <t>Stop the current transition before starting a new one. I get this error when I try to run multiple transitions on the same layer at the same time</t>
+  </si>
+  <si>
+    <t>Error in transition handler: %1</t>
+  </si>
+  <si>
+    <t>Transition %1 is already registered</t>
+  </si>
+  <si>
+    <t>Transition handler %1 not found</t>
+  </si>
+  <si>
+    <t>Please specify the transition source</t>
+  </si>
+  <si>
+    <t>This layer cannot have images</t>
+  </si>
+  <si>
+    <t>Both the transition source and the transition destination must have images</t>
+  </si>
+  <si>
+    <t>Unable to load rule image %1</t>
+  </si>
+  <si>
+    <t>Please specify option %1</t>
+  </si>
+  <si>
+    <t>Layer size of transition source (%1) and transition destination (%2) do not match</t>
+  </si>
+  <si>
+    <t>Transition source Transition source is myself</t>
+  </si>
+  <si>
+    <t>Warning: The %2nd passed hda parameter of method %1 is now ignored by Kirikiri 2.22 beta 2. Use the Layer.holdAlpha property instead.</t>
+  </si>
+  <si>
+    <t>Multiple WaveSoundBuffers cannot be used in the same filter at the same time</t>
+  </si>
+  <si>
+    <t>window must be a power of 2 in the range 64-32768</t>
+  </si>
+  <si>
+    <t>overlap must be a power of 2 in the range 2-32</t>
   </si>
   <si>
     <t>copying to clipboard failed.</t>
   </si>
   <si>
-    <t>クリップボードへのコピーに失敗しました</t>
+    <t>Failed to copy to clipboard</t>
     <rPh sb="13" eb="15">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1363,116 +1363,116 @@
     <t>TVPConsoleResult</t>
   </si>
   <si>
-    <t>ハードウェア例外が発生しました</t>
-  </si>
-  <si>
-    <t>スクリプトエディタ (メイン)</t>
-  </si>
-  <si>
-    <t>スクリプトエディタ (例外通知)</t>
-  </si>
-  <si>
-    <t>フォルダ/アーカイブの選択画面を表示しようとしましたが krdevui.dll が見つからないので表示できません.\n実行するフォルダ/アーカイブはコマンドラインの引数として指定してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無効な色深度です</t>
-  </si>
-  <si>
-    <t>プラグイン %1 を読み込めません</t>
-  </si>
-  <si>
-    <t>%1 は有効なプラグインではありません</t>
-  </si>
-  <si>
-    <t>プラグインの解放に失敗しました</t>
-  </si>
-  <si>
-    <t>プラグインの接続中に他のプラグインを接続することはできまません</t>
-  </si>
-  <si>
-    <t>指定されたプラグインは使用中のため解放できません</t>
-  </si>
-  <si>
-    <t>ビットマップ用メモリを確保できません/%1(size=%2)</t>
-  </si>
-  <si>
-    <t>スキャンライン %1 は範囲(0～%2)を超えています</t>
-  </si>
-  <si>
-    <t>指定されたドライブでは CD-DA を再生できません</t>
-  </si>
-  <si>
-    <t>CD-DA を再生できるドライブが見つかりません</t>
-  </si>
-  <si>
-    <t>指定されたメッセージは MIDI メッセージとして有効な形式ではありません</t>
-  </si>
-  <si>
-    <t>DirectSound を初期化できません : %1</t>
-  </si>
-  <si>
-    <t>DirectSound セカンダリバッファを作成できません : %1/%2</t>
-  </si>
-  <si>
-    <t>ループ情報 %1 は異常です</t>
-  </si>
-  <si>
-    <t>指定されたメニュー項目はこのメニュー項目の子ではありません</t>
-  </si>
-  <si>
-    <t>Direct3D を初期化できません : %1</t>
-  </si>
-  <si>
-    <t>適合する画面モードが見つかりません : %1</t>
-  </si>
-  <si>
-    <t>フルスクリーンに切り替えられません : %1</t>
-  </si>
-  <si>
-    <t>フルスクリーン中では操作できないプロパティを設定しようとしました</t>
-  </si>
-  <si>
-    <t>フルスクリーン中では操作できないメソッドを呼び出そうとしました</t>
-  </si>
-  <si>
-    <t>マウスカーソル %1 の読み込みに失敗しました</t>
-  </si>
-  <si>
-    <t>ビデオ/Shockwave Flash を再生するためには krmovie.dll / krflash.dll が必要ですが 読み込むことができません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>krmovie.dll/krflash.dll が異常か 対応できないバージョンです</t>
-  </si>
-  <si>
-    <t>krmovie.dll/krflash.dll 内でエラーが発生しました/%1</t>
-  </si>
-  <si>
-    <t>レンダリング済みフォントのマッピングに失敗しました : %1</t>
-  </si>
-  <si>
-    <t>%1 に書き込みできません。ソフトウェアが実行中のままになっていないか、あるいは書き込み権限があるかどうかを確認してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%1 の終了を確認できないため、これを削除できませんでした(このファイルは削除して結構です)</t>
-  </si>
-  <si>
-    <t>%1 を実行できません</t>
-  </si>
-  <si>
-    <t>プラグインから関数 %1 を要求されましたが、その関数は本体内に存在しません。プラグインと本体のバージョンが正しく対応しているか確認してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> = (例外発生)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンソール : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(info) Loading startup script : </t>
+    <t>A hardware exception has occurred</t>
+  </si>
+  <si>
+    <t>Script editor (main)</t>
+  </si>
+  <si>
+    <t>Script editor (exception notification)</t>
+  </si>
+  <si>
+    <t>I tried to display the folder/archive selection screen, but I cannot display it because krdevui.dll cannot be found.\nPlease specify the folder/archive to execute as an argument on the command line.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid color depth</t>
+  </si>
+  <si>
+    <t>Unable to load plugin %1</t>
+  </si>
+  <si>
+    <t>%1 is not a valid plugin</t>
+  </si>
+  <si>
+    <t>Failed to release the plugin</t>
+  </si>
+  <si>
+    <t>No other plug-in can be connected while a plug-in is connected</t>
+  </si>
+  <si>
+    <t>The specified plugin cannot be released because it is in use.</t>
+  </si>
+  <si>
+    <t>Cannot allocate bitmap memory/%1(size=%2)</t>
+  </si>
+  <si>
+    <t>Scanline %1 is out of range (0-%2)</t>
+  </si>
+  <si>
+    <t>CD-DA cannot be played on the specified drive</t>
+  </si>
+  <si>
+    <t>Cannot find a drive that can play CD-DA</t>
+  </si>
+  <si>
+    <t>The specified message is not a valid MIDI message format</t>
+  </si>
+  <si>
+    <t>Unable to initialize DirectSound: %1</t>
+  </si>
+  <si>
+    <t>Unable to create DirectSound secondary buffer: %1/%2</t>
+  </si>
+  <si>
+    <t>Loop information %1 is abnormal</t>
+  </si>
+  <si>
+    <t>The specified menu item is not a child of this menu item</t>
+  </si>
+  <si>
+    <t>Unable to initialize Direct3D: %1</t>
+  </si>
+  <si>
+    <t>No matching screen mode found: %1</t>
+  </si>
+  <si>
+    <t>Cannot switch to full screen: %1</t>
+  </si>
+  <si>
+    <t>Tried to set a property that cannot be manipulated in full screen</t>
+  </si>
+  <si>
+    <t>Tried to call a method that cannot be operated in full screen</t>
+  </si>
+  <si>
+    <t>Failed to read mouse cursor %1</t>
+  </si>
+  <si>
+    <t>Krmovie.dll / krflash.dll is required to play video/Shockwave Flash but cannot be loaded</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The version of krmovie.dll/krflash.dll is abnormal or unsupported</t>
+  </si>
+  <si>
+    <t>An error occurred in krmovie.dll/krflash.dll/%1</t>
+  </si>
+  <si>
+    <t>Failed to map rendered font: %1</t>
+  </si>
+  <si>
+    <t>Cannot write to %1. Make sure the software is not left running or has write permissions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Couldn't delete %1 because it can't see the end (this file can be deleted)</t>
+  </si>
+  <si>
+    <t>%1 cannot be executed</t>
+  </si>
+  <si>
+    <t>The plug-in requested function %1, but the function does not exist in the body. Please make sure that the version of the plug-in and the main unit are compatible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = (Exception occurred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Console: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(info) Loading startup script: </t>
   </si>
   <si>
     <t>(info) Startup script ended.</t>
@@ -1481,7 +1481,7 @@
     <t>(info) Rebuilding Auto Path Table ...</t>
   </si>
   <si>
-    <t>Error in retrieving System.onActivate/onDeactivate : %1</t>
+    <t>Error in retrieving System.onActivate/onDeactivate: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1494,7 +1494,7 @@
     <t>(info) Failed.</t>
   </si>
   <si>
-    <t>(info) Done. (contains %1 file(s), %2 segment(s))</t>
+    <t>(info) Done.(contains %1 file(s), %2 segment(s))</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1506,7 +1506,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) Trying to read XP3 virtual file system information from : %1</t>
+    <t>(info) Trying to read XP3 virtual file system information from: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1521,11 +1521,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\r\n\r\n\r\n==============================================================================\r\n==============================================================================\r\n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>\n\n\n==============================================================================\n==============================================================================\n</t>
+    <t>\r\n\r\n\r\n====================================== ========================================\r\n====== =================================================== ======================\r\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n\n\n============================================ ==================================\n============== =================================================== ==============\n</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1537,10 +1537,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Can't open font file '%1$s'</t>
-  </si>
-  <si>
-    <t>Font '%1$s' cannot be used</t>
+    <t>Can't open font file'%1$s'</t>
+  </si>
+  <si>
+    <t>Font'%1$s' cannot be used</t>
   </si>
   <si>
     <t>Font Rasterize error.</t>
@@ -1585,7 +1585,7 @@
     <t>Update type of tutGiveUpdate is not yet supported</t>
   </si>
   <si>
-    <t xml:space="preserve">error code : </t>
+    <t xml:space="preserve">error code: </t>
   </si>
   <si>
     <t>JPEG does not support palettized image</t>
@@ -1609,13 +1609,13 @@
     <t>TLG cannot be used as universal transition rule, province(_p) or mask(_m) images.</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsupported color count : </t>
+    <t xml:space="preserve">Unsupported color count: </t>
   </si>
   <si>
     <t>Data flag must be 0 (any flags are not yet supported)</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsupported color type : </t>
+    <t xml:space="preserve">Unsupported color type: </t>
   </si>
   <si>
     <t>External golomb bit length table is not yet supported.</t>
@@ -1669,15 +1669,15 @@
     <t>TVPDefaultFontName</t>
   </si>
   <si>
-    <t>(info) Listing files in %1 …</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Total physical memory : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Selected project directory : %1</t>
+    <t>(info) Listing files in %1…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Total physical memory: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Selected project directory: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1687,7 +1687,7 @@
     <t>(info) Loading executable embedded options succeeded.</t>
   </si>
   <si>
-    <t>(info) Loading executable embedded options failed (ignoring) : %1</t>
+    <t>(info) Loading executable embedded options failed (ignoring): %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1698,7 +1698,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) Loading configuration file \"%1\" failed (ignoring) : %2</t>
+    <t>(info) Loading configuration file \"%1\" failed (ignoring): %2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1706,24 +1706,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ok.</t>
+    <t>OK.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>failed.</t>
   </si>
   <si>
-    <t>(info) Data path : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Specified option(s) (earlier item has more priority) :</t>
+    <t>(info) Data path: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Specified option(s) (earlier item has more priority):</t>
   </si>
   <si>
     <t xml:space="preserve"> (none)</t>
   </si>
   <si>
-    <t>(info) CPU clock (roughly) : %dMHz</t>
+    <t>(info) CPU clock (roughly): %dMHz</t>
   </si>
   <si>
     <t>base</t>
@@ -1734,7 +1734,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吉里吉里</t>
+    <t>Kirikiri</t>
   </si>
   <si>
     <t>Unknown error!</t>
@@ -1743,22 +1743,22 @@
     <t>Exit code: %d\n</t>
   </si>
   <si>
-    <t>統合型のタッチ デジタイザーが入力に使用されています。</t>
-  </si>
-  <si>
-    <t>外付けのタッチ デジタイザーが入力に使用されています。</t>
-  </si>
-  <si>
-    <t>統合型のペン デジタイザーが入力に使用されています。</t>
-  </si>
-  <si>
-    <t>外付けのペン デジタイザーが入力に使用されています。</t>
-  </si>
-  <si>
-    <t>複数入力がサポートされた入力デジタイザーが入力に使用されています。</t>
-  </si>
-  <si>
-    <t>入力デジタイザーで入力の準備ができています。</t>
+    <t>An integrated touch digitizer is used for input.</t>
+  </si>
+  <si>
+    <t>An external touch digitizer is used for input.</t>
+  </si>
+  <si>
+    <t>An integrated pen digitizer is used for input.</t>
+  </si>
+  <si>
+    <t>An external pen digitizer is used for input.</t>
+  </si>
+  <si>
+    <t>An input digitizer that supports multiple inputs is used for the input.</t>
+  </si>
+  <si>
+    <t>Input digitizer ready for input.</t>
   </si>
   <si>
     <t>CPU check failure.</t>
@@ -1768,7 +1768,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">(info) CPU #%1 : </t>
+    <t xml:space="preserve">(info) CPU #%1: </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1776,17 +1776,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) finally detected CPU features : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) CPU clock : %.1fMHz</t>
-  </si>
-  <si>
-    <t>Layer bitmap: Buffer underrun detected. Check your drawing code!</t>
-  </si>
-  <si>
-    <t>Layer bitmap: Buffer overrun detected. Check your drawing code!</t>
+    <t>(info) finally detected CPU features: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) CPU clock: %.1fMHz</t>
+  </si>
+  <si>
+    <t>Layer bitmap: Buffer underrun detected.Check your drawing code!</t>
+  </si>
+  <si>
+    <t>Layer bitmap: Buffer overrun detected.Check your drawing code!</t>
   </si>
   <si>
     <t>Faild to create Direct3D9.</t>
@@ -1804,7 +1804,7 @@
     <t>Faild to set render state.</t>
   </si>
   <si>
-    <t>warning : Image size too large. May be cannot create texture.</t>
+    <t>warning: Image size too large. May be cannot create texture.</t>
   </si>
   <si>
     <t>Use power of two surface.</t>
@@ -1847,37 +1847,37 @@
     <t>Failed to create offscreen DC</t>
   </si>
   <si>
-    <t>スクリーンデバイスコンテキストの取得に失敗しました</t>
+    <t>Failed to get screen device context</t>
     <rPh sb="16" eb="18">
-      <t>シュトク</t>
+      <t>Stock</t>
     </rPh>
     <rPh sb="19" eb="21">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフスクリーンビットマップの生成に失敗しました</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to generate offscreen bitmap</t>
     <rPh sb="14" eb="16">
-      <t>セイセイ</t>
+      <t>Seisei</t>
     </rPh>
     <rPh sb="17" eb="19">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オフスクリーンデバイスコンテキストの生成に失敗しました</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failed to create offscreen device context</t>
     <rPh sb="18" eb="20">
-      <t>セイセイ</t>
+      <t>Seisei</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Susie plugin info : %1</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Susie plugin info: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1890,14 +1890,14 @@
     <t>Invalid video size</t>
   </si>
   <si>
-    <t>無効なビデオサイズ</t>
+    <t>Invalid video size</t>
     <rPh sb="0" eb="2">
-      <t>ムコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rough VSync interval read from API : %1</t>
+      <t>Mukou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rough VSync interval read from API: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1939,7 +1939,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) environment: default screen aspect ratio: %1 : %2</t>
+    <t>(info) environment: default screen aspect ratio: %1 :%2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1962,30 +1962,30 @@
     <t>(info) Changing screen mode succeeded</t>
   </si>
   <si>
-    <t>(info) スクリーンモード変更に成功しました</t>
+    <t>(info) Screen mode changed successfully</t>
     <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
+      <t>Change</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全スクリーンモードを試しましたが、使用可能なモードはありませんでした</t>
+      <t>Seiko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tried full screen mode, but no mode available</t>
     <rPh sb="0" eb="1">
-      <t>ゼン</t>
+      <t>Zen</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>タメ</t>
+      <t>Tame</t>
     </rPh>
     <rPh sb="17" eb="21">
-      <t>シヨウカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) スクリーンモードの %1 を試みる</t>
+      <t>Cypress</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) try %1 in screen mode</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1993,159 +1993,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(info) Panic! ドライバーから提供されたスクリーンモードに適切なものはありません。デフォルト画面サイズ、色数を試します</t>
+    <t>(info) There are no suitable screen modes provided by the Panic! driver. Try default screen size, number of colors</t>
     <rPh sb="21" eb="23">
-      <t>テイキョウ</t>
+      <t>Taiko</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>テキセツ</t>
+      <t>Texet</t>
     </rPh>
     <rPh sb="52" eb="54">
-      <t>ガメン</t>
+      <t>Gamen</t>
     </rPh>
     <rPh sb="58" eb="60">
-      <t>イロカズ</t>
+      <t>Iroazu</t>
     </rPh>
     <rPh sb="61" eb="62">
-      <t>タメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) environment: 有効なディスプレイモード:</t>
+      <t>Tame</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) environment: Valid display modes:</t>
     <rPh sb="20" eb="22">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) environment: デフォルトスクリーンアスペクトレート: %1 : %2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) environment: デフォルトスクリーンモード: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) condition: ズームモード: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) condition: モード: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) condition: 推奨スクリーンモード: %1</t>
+      <t>Yuko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) environment: default screen aspect ratio: %1: %2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) environment: Default screen mode: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) condition: Zoom mode: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) condition: Mode: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) condition: Recommended screen mode: %1</t>
     <rPh sb="18" eb="20">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) 最適なフルスクリーン解像度を検索 ...</t>
+      <t>Watermelon</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Find the best full screen resolution...</t>
     <rPh sb="7" eb="9">
-      <t>サイテキ</t>
+      <t>Psychic</t>
     </rPh>
     <rPh sb="17" eb="20">
-      <t>カイゾウド</t>
+      <t>Kaizoudo</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) environment: %1 を使用</t>
+      <t>Kensaku</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) environment: use %1</t>
     <rPh sb="24" eb="26">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Direct3D9 生成失敗</t>
+      <t>Syou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct3D9 generation failure</t>
     <rPh sb="10" eb="12">
-      <t>セイセイ</t>
+      <t>Seisei</t>
     </rPh>
     <rPh sb="12" eb="14">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Direct3DCreate9 が d3d9.dll に見つかりません</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Direct3DCreate9 not found in d3d9.dll</t>
     <rPh sb="28" eb="29">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d3d9.dll をロードできません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Direct3D 読込み...</t>
+      <t>Mi</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot load d3d9.dll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Direct3D reading...</t>
     <rPh sb="16" eb="18">
-      <t>ヨミコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) 失敗</t>
+      <t>Yomiko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) failure</t>
     <rPh sb="7" eb="9">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) IDirect3D9 以上のインターフェイスが見つかりました。現在の Direct3D ドライバ情報を取得します...</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) IDirect3D9 or higher interface found. Get current Direct3D driver information...</t>
     <rPh sb="18" eb="20">
-      <t>イジョウ</t>
+      <t>Ijou</t>
     </rPh>
     <rPh sb="30" eb="31">
-      <t>ミ</t>
+      <t>Mi</t>
     </rPh>
     <rPh sb="38" eb="40">
-      <t>ゲンザイ</t>
+      <t>Gensai</t>
     </rPh>
     <rPh sb="55" eb="57">
-      <t>ジョウホウ</t>
+      <t>Butterfly</t>
     </rPh>
     <rPh sb="58" eb="60">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リフレッシュレートはまだ間違っているようなので、デフォルト値(16)と仮定します</t>
+      <t>Stock</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The refresh rate still seems wrong, so I'll assume the default value (16)</t>
     <rPh sb="12" eb="14">
-      <t>マチガ</t>
+      <t>Matiga</t>
     </rPh>
     <rPh sb="29" eb="30">
-      <t>チ</t>
+      <t>Ji</t>
     </rPh>
     <rPh sb="35" eb="37">
-      <t>カテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">API から取得したリフレッシュレート : </t>
+      <t>Cutie</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Refresh rate obtained from API: </t>
     <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fatal: どの drawer オブジェクトも生成できませんでした</t>
+      <t>Stock</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fatal: Could not create any drawer object</t>
     <rPh sb="24" eb="26">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有効なデジタイザー</t>
+      <t>Seisei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A valid digitizer</t>
     <rPh sb="0" eb="2">
-      <t>ユウコウ</t>
+      <t>Yuko</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2154,9 +2154,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>終了コード: %d\n</t>
+    <t>Exit code: %d\n</t>
     <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
+      <t>Shuryo</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2164,140 +2164,140 @@
     <t>Fatal Error</t>
   </si>
   <si>
-    <t>%1 (%2) 上で実行が開始されました</t>
+    <t>Execution started on %1 (%2)</t>
     <rPh sb="8" eb="9">
-      <t>ジョウ</t>
+      <t>Joe</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ジッコウ</t>
+      <t>Jiko</t>
     </rPh>
     <rPh sb="13" eb="15">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成功。</t>
+      <t>Kaishi</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>success.</t>
     <rPh sb="0" eb="2">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>失敗。</t>
+      <t>Seiko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failure.</t>
     <rPh sb="0" eb="2">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sizeof(tjs_char) は 2 か 4 でなければなりません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メディア名 \"%1\" は既に登録されています</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sizeof(tjs_char) must be 2 or 4.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Media name \"%1\" is already registered</t>
     <rPh sb="4" eb="5">
-      <t>メイ</t>
+      <t>Mei</t>
     </rPh>
     <rPh sb="14" eb="15">
-      <t>スデ</t>
+      <t>Sude</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メディア名 \"%1\" は登録されていません</t>
+      <t>Touroku</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Media name \"%1\" is not registered</t>
     <rPh sb="4" eb="5">
-      <t>メイ</t>
+      <t>Mei</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) 自動検索パステーブルを再構築しています ...</t>
+      <t>Touroku</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Rebuilding automatic search path table...</t>
     <rPh sb="7" eb="9">
-      <t>ジドウ</t>
+      <t>Jido</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ケンサク</t>
+      <t>Kensaku</t>
     </rPh>
     <rPh sb="18" eb="21">
-      <t>サイコウチク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(info) 起動スクリプト読込み中 : </t>
+      <t>Psychotic</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(info) Reading startup script: </t>
     <rPh sb="7" eb="9">
-      <t>キドウ</t>
+      <t>Kido</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>ヨミコ</t>
+      <t>Yomiko</t>
     </rPh>
     <rPh sb="17" eb="18">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) 起動スクリプト実行終了。</t>
+      <t>Chew</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Start script execution end.</t>
     <rPh sb="7" eb="9">
-      <t>キドウ</t>
+      <t>Kido</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>ジッコウ</t>
+      <t>Jiko</t>
     </rPh>
     <rPh sb="16" eb="18">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UTF-16では発生し得ないUTF-8への変換です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) 失敗。</t>
+      <t>Shuryo</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conversion to UTF-8 that cannot occur in UTF-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Failure.</t>
     <rPh sb="7" eb="9">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォント '%1$s' は使用できません</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Font'%1$s' is not available</t>
     <rPh sb="13" eb="15">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(info) Susie プラグイン情報 : %1</t>
+      <t>Syou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(info) Susie plugin info: %1</t>
     <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サポートしていない Bitmap ヘッダーが Susie プラグインから渡されました</t>
+      <t>Butterfly</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported Bitmap header passed by Susie plugin</t>
     <rPh sb="36" eb="37">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失敗: 不明な理由 (%1)</t>
+      <t>Water</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings failed: unknown reason (%1)</t>
     <rPh sb="22" eb="24">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <rPh sb="26" eb="28">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="29" eb="31">
-      <t>リユウ</t>
+      <t>Liyu</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2322,16 +2322,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CPUのチェック失敗</t>
+    <t>CPU check failure</t>
     <rPh sb="8" eb="10">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPUチェック失敗: サポートしていないCPU\r\n%1</t>
+      <t>Shippai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPU check failure: unsupported CPU\r\n%1</t>
     <rPh sb="7" eb="9">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2487,165 +2487,165 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>渡された Draw Device からインターフェイスを取得できません</t>
+    <t>Cannot get interface from passed Draw Device</t>
     <rPh sb="0" eb="1">
-      <t>ワタ</t>
+      <t>Water</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaveTLG6: ビット長が長すぎます (渡された画像が大きすぎる可能性があります)</t>
+      <t>Stock</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6: Too long bit (the image passed may be too large)</t>
     <rPh sb="13" eb="14">
-      <t>チョウ</t>
+      <t>Butterfly</t>
     </rPh>
     <rPh sb="15" eb="16">
-      <t>ナガ</t>
+      <t>Naga</t>
     </rPh>
     <rPh sb="22" eb="23">
-      <t>ワタ</t>
+      <t>Water</t>
     </rPh>
     <rPh sb="26" eb="28">
-      <t>ガゾウ</t>
+      <t>Gazou</t>
     </rPh>
     <rPh sb="29" eb="30">
-      <t>オオ</t>
+      <t>Oh</t>
     </rPh>
     <rPh sb="34" eb="37">
-      <t>カノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaveTLG6: メモリ不足です</t>
+      <t>Kanosei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6: Out of memory</t>
     <rPh sb="13" eb="15">
-      <t>ブソク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正なバージョンのヘッダーです</t>
+      <t>Busoku</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bad version header</t>
     <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>16 ビット UNICODE フォントファイルではありません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シグネチャが見つからないか、プリレンダーフォントファイルではありません</t>
+      <t>Fusei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not a 16-bit UNICODE font file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Signature not found or not a pre-rendered font file</t>
     <rPh sb="6" eb="7">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル読込みエラー</t>
+      <t>Mi</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File read error</t>
     <rPh sb="4" eb="6">
-      <t>ヨミコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルサイズがゼロです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メモリ確保に失敗しました</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不正な TLG ヘッダーか、サポートしていない TLG バージョンです</t>
+      <t>Yomiko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>File size is zero</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Memory allocation failed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bad TLG header or unsupported TLG version</t>
     <rPh sb="0" eb="2">
-      <t>フセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サポートしていないエントロピーコードメソッドです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部 golomb ビット長テーブルはサポートしていません</t>
+      <t>Fusei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Entropy code method not supported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Does not support external golomb bit length tables</t>
     <rPh sb="0" eb="2">
-      <t>ガイブ</t>
+      <t>Gaib</t>
     </rPh>
     <rPh sb="13" eb="14">
-      <t>チョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">サポートしていないカラータイプです : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">エラーコード : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... 中断 [タイムアウト]</t>
+      <t>Butterfly</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Color types not supported: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Error code : </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... interrupt [timeout]</t>
     <rPh sb="5" eb="7">
-      <t>チュウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... 中断 [バイトサイズ上限値超過]</t>
+      <t>Chudan</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... Suspended [Byte size upper limit exceeded]</t>
     <rPh sb="5" eb="7">
-      <t>チュウダン</t>
+      <t>Chudan</t>
     </rPh>
     <rPh sb="15" eb="18">
-      <t>ジョウゲンチ</t>
+      <t>Jougenchi</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>チョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明な update タイプ</t>
+      <t>Chowka</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown update type</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不明な transition タイプ</t>
+      <t>Unknown</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown transition type</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Update タイプの tutGiveUpdate はサポートしていません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPEG はパレット画像をサポートしていません</t>
+      <t>Unknown</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update type tutGiveUpdate is not supported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPEG does not support palette images</t>
     <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>libpng エラー.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サポートしていないカラータイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォント ラスタライズ エラー.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bitmap を非同期読込み中のため、このメソッドは呼び出せません</t>
+      <t>Gazou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libpng error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported color types</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Font rasterization error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This method cannot be called because the Bitmap is being read asynchronously.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3126,7 +3126,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Susie Plugin error : %1</t>
+    <t>Susie Plugin error: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3138,7 +3138,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cannot allocate memory for Bitmap : %1 (size=%2)</t>
+    <t>Cannot allocate memory for Bitmap: %1 (size=%2)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3146,7 +3146,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Plugin Error : %1</t>
+    <t>Plugin Error: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3158,11 +3158,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MCI Error : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid SMF : %1</t>
+    <t>MCI Error: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid SMF: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3170,11 +3170,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DirectSound Initialize file : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot create DirectSound secondary buffer : %1/%2</t>
+    <t>DirectSound Initialize file: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot create DirectSound secondary buffer: %1/%2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3186,27 +3186,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Cannot initialize Direct3D : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot find display mode : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot switch to fullscreen : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid property in fullscreen : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid method in fullscreen : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannot load mouse cursor : %1</t>
+    <t>Cannot initialize Direct3D: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot find display mode: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot switch to fullscreen: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid property in fullscreen: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid method in fullscreen: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cannot load mouse cursor: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3218,7 +3218,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Error in krmovie.dll : %1</t>
+    <t>Error in krmovie.dll: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3226,7 +3226,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prerendered font mapping failed : %1</t>
+    <t>Prerendered font mapping failed: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3250,7 +3250,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Console : </t>
+    <t xml:space="preserve">Console: </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3286,7 +3286,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オプション</t>
+    <t>option</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3298,9 +3298,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>XP3ファイルかフォルダを選択してください</t>
+    <t>Select XP3 file or folder</t>
     <rPh sb="13" eb="15">
-      <t>センタク</t>
+      <t>Select</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3313,7 +3313,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Command line parameter %1 = %2 is invalid. It's used default.</t>
+    <t>Command line parameter %1 = %2 is invalid.It's used default.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3357,11 +3357,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Use path delimiter '&gt;' or '/'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(Attention) Filename \"%1\" contains '#'</t>
+    <t>Use path delimiter'&gt;' or'/'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Attention) Filename \"%1\" contains'#'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3573,7 +3573,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Transition %1 already registerd</t>
+    <t>Transition %1 already registered</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3609,7 +3609,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Warring : Method %1 %2th parameter had is ignore. Hold destination alpha parameter is now deprecated.</t>
+    <t>Warring: Method %1 %2th parameter had is ignore.Hold destination alpha parameter is now deprecated.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3641,9 +3641,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>致命的なエラーが発生しました</t>
+    <t>A fatal error has occurred</t>
     <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
+      <t>Hassey</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3652,27 +3652,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不明なエラーが発生しました。</t>
+    <t>An unknown error has occurred.</t>
     <rPh sb="0" eb="2">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2の累乗サイズのサーフェイスを使用します。</t>
+      <t>Hassey</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Use a power of 2 size surface.</t>
     <rPh sb="2" eb="4">
-      <t>ルイジョウ</t>
+      <t>Louis Joe</t>
     </rPh>
     <rPh sb="15" eb="17">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列を UNICODE 文字列に変換できません。解釈できない文字が含まれてます。正しいデータが指定されているかを確認してください。データが破損している可能性もあります</t>
+      <t>Syou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The string cannot be converted to a UNICODE string. It contains characters that cannot be interpreted. Make sure that the correct data is specified. Data may be corrupted</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3680,7 +3680,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : テクスチャ サーフェイスのピクセル フォーマットが無効です</t>
+    <t>D3D: Invalid texture surface pixel format</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3688,65 +3688,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : 色値に対して指定されているテクスチャ ブレンディング処理を、デバイスがサポートしていません</t>
+    <t>D3D: The device does not support the specified texture blending process for color values</t>
   </si>
   <si>
     <t>TVPD3dErrUnsuportedColorArg</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : 色値に対して指定されているテクスチャ ブレンディング引数を、デバイスがサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : アルファ チャンネルに対して指定されているテクスチャ ブレンディング処理を、デバイスがサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : アルファ チャンネルに対して指定されているテクスチャ ブレンディング引数を、デバイスがサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : 現在のテクスチャ フィルタは同時には使えません</t>
-  </si>
-  <si>
-    <t>D3D : デバイスが指定されたテクスチャ係数値をサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : 現在設定されているレンダリング ステートは同時には使えません</t>
-  </si>
-  <si>
-    <t>D3D : デバイスが指定されたテクスチャ フィルタをサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : 現在のテクスチャは同時には使えません</t>
-  </si>
-  <si>
-    <t>D3D : 要求された項目が見つかりませんでした</t>
-  </si>
-  <si>
-    <t>D3D : デバイスは、消失していますが、現在リセットできます</t>
-  </si>
-  <si>
-    <t>D3D : このデバイスは、照会されたテクニックをサポートしていません</t>
-  </si>
-  <si>
-    <t>D3D : 使用されません</t>
-  </si>
-  <si>
-    <t>D3D : このコードを返したデバイスが原因で、ハードウェア アダプターが OS によってリセットされました</t>
-  </si>
-  <si>
-    <t>D3D : D3DERR_CANNOTPROTECTCONTENT</t>
-  </si>
-  <si>
-    <t>D3D : ハードウェア アダプターが削除されています</t>
-  </si>
-  <si>
-    <t>D3D : 成功しましたが、このフォーマットに対するミップマップの自動生成はサポートされていません</t>
-  </si>
-  <si>
-    <t>D3D : Direct3D サブシステム内で原因不明のエラーが発生しました</t>
-  </si>
-  <si>
-    <t>D3D : 無効なパラメータが関数に渡されました</t>
+    <t>D3D: Device does not support texture blending argument specified for color value</t>
+  </si>
+  <si>
+    <t>D3D: The device does not support the texture blending process specified for the alpha channel</t>
+  </si>
+  <si>
+    <t>D3D: Device does not support texture blending argument specified for alpha channel</t>
+  </si>
+  <si>
+    <t>D3D: Current texture filters cannot be used at the same time</t>
+  </si>
+  <si>
+    <t>D3D: Device does not support specified texture factor value</t>
+  </si>
+  <si>
+    <t>D3D: Rendering states currently set cannot be used simultaneously</t>
+  </si>
+  <si>
+    <t>D3D: Device does not support the specified texture filter</t>
+  </si>
+  <si>
+    <t>D3D: Current textures cannot be used at the same time</t>
+  </si>
+  <si>
+    <t>D3D: The requested item was not found</t>
+  </si>
+  <si>
+    <t>D3D: Device is missing but can now be reset</t>
+  </si>
+  <si>
+    <t>D3D: This device does not support the queried technique</t>
+  </si>
+  <si>
+    <t>D3D: Not used</t>
+  </si>
+  <si>
+    <t>D3D: The hardware adapter was reset by the OS due to the device returning this code</t>
+  </si>
+  <si>
+    <t>D3D: D3DERR_CANNOTPROTECTCONTENT</t>
+  </si>
+  <si>
+    <t>D3D: Hardware adapter has been removed</t>
+  </si>
+  <si>
+    <t>D3D: Successful, but automatic generation of mipmaps for this format is not supported</t>
+  </si>
+  <si>
+    <t>D3D: An unexplained error occurred within the Direct3D subsystem</t>
+  </si>
+  <si>
+    <t>D3D: Invalid parameter passed to function</t>
   </si>
   <si>
     <t>TVPD3dErrUnsuportedAalphtOperation</t>
@@ -3845,12 +3845,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : 不明なエラーが発生しました</t>
+    <t>D3D: An unknown error has occurred</t>
     <rPh sb="6" eb="8">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="13" eb="19">
-      <t>ハッ</t>
+      <t>Huh</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3859,25 +3859,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : デバイスは消失しています。現在リセットできません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : メソッドの呼び出しが無効です。メソッドのパラメータが有効なポインタではない等の可能性があります。</t>
+    <t>D3D: The device is gone. Currently cannot be reset.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Invalid method call. It is possible that the method parameter is not a valid pointer.</t>
     <rPh sb="43" eb="44">
-      <t>ナド</t>
+      <t>Nad</t>
     </rPh>
     <rPh sb="45" eb="48">
-      <t>カノウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : Direct3D が処理を行うのに十分なディスプレイ メモリがありません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : Direct3D が呼び出しを完了するための十分なメモリを割り当てることができませんでした</t>
+      <t>Kanosei</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Not enough display memory for Direct3D to process</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Direct3D was unable to allocate enough memory to complete the call</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3885,12 +3885,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : ドライバ内部でエラーが発生しました。アプリケーションをシャットダウンする必要があります。</t>
+    <t>D3D: An error occurred inside the driver. You need to shut down the application.</t>
     <rPh sb="17" eb="19">
-      <t>ハッセイ</t>
+      <t>Hassey</t>
     </rPh>
     <rPh sb="42" eb="44">
-      <t>ヒツヨウ</t>
+      <t>Sheep</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3915,152 +3915,152 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D3D : 指定された暗号化アルゴリズムをサポートしていません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : 指定されたサーフェス フォーマットのオーバーレイをデバイスがサポートしていません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : 指定されたサイズまたはディスプレイ モードのオーバーレイをデバイスがサポートしていません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : Unknown error.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device has been lost but cannot be reset at this time.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">D3D : Internal driver error. Applications should destroy and recreate the device when receiving this error. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The method call is invalid. For example, a method's parameter may not be a valid pointer.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">D3D : Direct3D does not have enough display memory to perform the operation. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : Direct3D could not allocate sufficient memory to complete the call.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The pixel format of the texture surface is not valid.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support a specified texture-blending operation for color values.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support a specified texture-blending argument for color values.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support a specified texture-blending operation for the alpha channel.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support a specified texture-blending argument for the alpha channel.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The application is requesting more texture-filtering operations than the device supports.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The current texture filters cannot be used together.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support the specified texture factor value. Not used; provided only to support older drivers.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The currently set render states cannot be used together.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device does not support the specified texture filter.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The current textures cannot be used simultaneously.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The requested item was not found.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : There is more data available than the specified buffer size can hold.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device has been lost but can be reset at this time.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : This device does not support the queried technique.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The requested device type is not valid.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : Not used.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">D3D : The device does not support overlay for the specified size or display mode. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">D3D : The device does not support overlay for the specified surface format. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The specified content cannot be protected.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The specified cryptographic algorithm is not supported.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The present statistics have no orderly sequence.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The hardware adapter has been removed.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : This is a success code. However, the autogeneration of mipmaps is not supported for this format.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : An undetermined error occurred inside the Direct3D subsystem.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : An invalid parameter was passed to the returning function.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BasicDrawDevice: Direct3D Device の生成に失敗しました : %1</t>
+    <t>D3D: The specified encryption algorithm is not supported.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support overlays for the specified surface format.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support the specified size or display mode overlay.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Unknown error.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device has been lost but cannot be reset at this time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D: Internal driver error. Applications should destroy and recreate the device when receiving this error. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The method call is invalid.For example, a method's parameter may not be a valid pointer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D: Direct3D does not have enough display memory to perform the operation. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Direct3D could not allocate sufficient memory to complete the call.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The pixel format of the texture surface is not valid.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support a specified texture-blending operation for color values.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support a specified texture-blending argument for color values.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support a specified texture-blending operation for the alpha channel.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support a specified texture-blending argument for the alpha channel.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The application is requesting more texture-filtering operations than the device supports.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The current texture filters cannot be used together.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support the specified texture factor value.Not used; provided only to support older drivers.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The currently set render states cannot be used together.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device does not support the specified texture filter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The current textures cannot be used simultaneously.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The requested item was not found.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: There is more data available than the specified buffer size can hold.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device has been lost but can be reset at this time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: This device does not support the queried technique.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The requested device type is not valid.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Not used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D: The device does not support overlay for the specified size or display mode. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D3D: The device does not support overlay for the specified surface format. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The specified content cannot be protected.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The specified cryptographic algorithm is not supported.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The present statistics have no orderly sequence.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The hardware adapter has been removed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: This is a success code.However, the autogeneration of mipmaps is not supported for this format.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: An undetermined error occurred inside the Direct3D subsystem.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: An invalid parameter was passed to the returning function.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Failed to generate Direct3D Device: %1</t>
     <rPh sb="34" eb="36">
-      <t>セイセイ</t>
+      <t>Seisei</t>
     </rPh>
     <rPh sb="37" eb="39">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4073,18 +4073,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BasicDrawDevice: Direct3D Device の生成に失敗しました : 不明な理由</t>
+    <t>BasicDrawDevice: Failed to generate Direct3D Device: unknown reason</t>
     <rPh sb="34" eb="36">
-      <t>セイセイ</t>
+      <t>Seisei</t>
     </rPh>
     <rPh sb="37" eb="39">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <rPh sb="46" eb="48">
-      <t>フメイ</t>
+      <t>Unknown</t>
     </rPh>
     <rPh sb="49" eb="51">
-      <t>リユウ</t>
+      <t>Liyu</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4097,7 +4097,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>\"Basic Draw\" デバイスでは２つ以上のLayer Managerを登録できない</t>
+    <t>\"Basic Draw\" device cannot register more than one Layer Manager</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4137,21 +4137,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BasicDrawDevice: テクスチャーは既にロックされています (EndBitmapCompletion() を呼ばずに StartBitmapCompletion() を2回呼び出しています), アンロックしてください.</t>
+    <t>BasicDrawDevice: The texture is already locked (calling StartBitmapCompletion() twice without calling EndBitmapCompletion()), unlock it.</t>
     <rPh sb="24" eb="25">
-      <t>スデ</t>
+      <t>Sude</t>
     </rPh>
     <rPh sb="60" eb="61">
-      <t>ヨ</t>
+      <t>Yo</t>
     </rPh>
     <rPh sb="91" eb="92">
-      <t>カイ</t>
+      <t>Kai</t>
     </rPh>
     <rPh sb="92" eb="93">
-      <t>ヨ</t>
+      <t>Yo</t>
     </rPh>
     <rPh sb="94" eb="95">
-      <t>ダ</t>
+      <t>Da</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4164,12 +4164,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BasicDrawDevice: (inf) ポリゴン描画に失敗しました/HR=%1</t>
+    <t>BasicDrawDevice: (inf) Polygon drawing failed /HR=%1</t>
     <rPh sb="27" eb="29">
-      <t>ビョウガ</t>
+      <t>Binga</t>
     </rPh>
     <rPh sb="30" eb="32">
-      <t>シッパイ</t>
+      <t>Shippai</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4187,7 +4187,7 @@
     <t>Unwind Consolidate: A frame consolidation has been executed.</t>
   </si>
   <si>
-    <t>Access Violation: スレッドが適切なアクセス権を持たない仮想アドレスに対して、読み取りまたは書き込みを試みました。</t>
+    <t>Access Violation: The thread attempted to read or write to a virtual address for which it does not have proper access.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4195,15 +4195,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Break Point: ブレークポイントに到達しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data Type Misalignment: 境界整列をサポートしないハードウェア上で、スレッドが境界に整列していないデータの読み取りまたは書き込みを試みました。たとえば、16 ビットの値は 2 バイトの境界線上に、32 ビットの値は 4 バイトの境界線上に整列していなければなりません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data Type Misalignment: The thread attempts to read or write data that is misaligned on hardware that does not provide alignment. For example, 16-bit values must be aligned on 2-byte boundaries, 32-bit values on 4-byte boundaries, and so on.</t>
+    <t>Break Point: A break point has been reached.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type Misalignment: A thread attempted to read or write unaligned data on hardware that does not support alignment. For example, a 16-bit value must be aligned on a 2-byte boundary and a 32-bit value must be aligned on a 4-byte boundary.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type Misalignment: The thread attempts to read or write data that is misaligned on hardware that does not provide alignment.For example, 16-bit values ​​must be aligned on 2-byte boundaries, 32-bit values ​​on 4-byte boundaries, and so on.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4215,15 +4215,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Denormal Operand: 浮動小数点演算のオペランドの 1 つが不正規化値です。不正規化値とは、小さすぎて標準の浮動小数点値として表現できない値です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Denormal Operand: One of the operands in a floating point operation is denormal. A denormal value is one that is too small to represent as a standard floating point value.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Divide By Zero: スレッドが浮動小数点値を 0 の浮動小数点除数で除算しようとしました。</t>
+    <t>Denormal Operand: One of the operands for floating point operations is the denormalized value. Denormalized values ​​are values ​​that are too small to be represented as standard floating-point values.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Denormal Operand: One of the operands in a floating point operation is denormal.A denormal value is one that is too small to represent as a standard floating point value.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: The thread tried to divide a floating point value by a floating point divisor of zero.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4231,7 +4231,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Inexact Result: 浮動小数点演算の結果を 10 進小数で正確に表現できません。</t>
+    <t>Inexact Result: The result of floating point operation cannot be represented exactly in decimal.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4239,7 +4239,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Invalid Operation: このリストに含まれていない例外が発生しました。</t>
+    <t>Invalid Operation: An exception not included in this list has occurred.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4247,7 +4247,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Overflow: 浮動小数点演算の指数が大きく、対応する型によって表現できません。</t>
+    <t>Overflow: The exponent of the floating point operation is large and cannot be represented by the corresponding type.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4255,7 +4255,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Stack Check: 浮動小数点演算の結果、スタックのオーバーフローまたはアンダーフローが発生しました。</t>
+    <t>Stack Check: A floating point operation resulted in a stack overflow or underflow.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4263,11 +4263,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Underflow: 浮動小数点演算の指数が小さく、対応する型によって表現できません。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Divide By Zero: スレッドが整数値を 0 の整数除数で除算しようとしました。</t>
+    <t>Underflow: The floating-point operation has a small exponent and cannot be represented by the corresponding type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: The thread tried to divide an integer value by an integer divisor of 0.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4275,11 +4275,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Overflow: 整数演算結果の最上位ビットが繰り上がりました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Priv Instruction: 現在のマシンモードで許可されていない演算を行う命令をスレッドが実行しようとしました。</t>
+    <t>Overflow: The most significant bit of the integer operation result has been rounded up.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priv Instruction: A thread tried to execute an instruction that does an operation that is not allowed in the current machine mode.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4287,7 +4287,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Noncontinuable Exception: 継続不可能な例外が発生した後、スレッドが実行を継続しようとしました。</t>
+    <t>Noncontinuable Exception: A thread attempted to continue execution after an uncontinuable exception occurred.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4295,84 +4295,84 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Guard Page: PAGE_GUARD で保護されたメモリにアクセスしました。</t>
+    <t>Guard Page: Accessed PAGE_GUARD protected memory.</t>
     <rPh sb="24" eb="26">
-      <t>ホゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illegal Instruction: 無効な命令を実行しようとしました。</t>
+      <t>Hogo</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal Instruction: You tried to execute an invalid instruction.</t>
     <rPh sb="21" eb="23">
-      <t>ムコウ</t>
+      <t>Mukou</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>メイレイ</t>
+      <t>May Ray</t>
     </rPh>
     <rPh sb="27" eb="29">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">In Page Error: 存在しないページへアクセスしようとしました、またシステムはページをロードできません。 </t>
+      <t>Jiko</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Page Error: You tried to access a page that does not exist, and the system cannot load the page. </t>
     <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid Disposition: 例外ハンドラは無効な配置をディスパッチャに返しました。C言語のような高水準言語では発生しません。</t>
+      <t>Song Zai</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Disposition: The exception handler returned an invalid disposition to the dispatcher. It does not occur in high-level languages ​​like C.</t>
     <rPh sb="21" eb="23">
-      <t>レイガイ</t>
+      <t>Laigai</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>ムコウ</t>
+      <t>Mukou</t>
     </rPh>
     <rPh sb="31" eb="33">
-      <t>ハイチ</t>
+      <t>Haiti</t>
     </rPh>
     <rPh sb="42" eb="43">
-      <t>カエ</t>
+      <t>Frog</t>
     </rPh>
     <rPh sb="49" eb="51">
-      <t>ゲンゴ</t>
+      <t>Gengo</t>
     </rPh>
     <rPh sb="55" eb="60">
-      <t>コウスイジュンゲンゴ</t>
+      <t>Kousui Jungengo</t>
     </rPh>
     <rPh sb="62" eb="64">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid Handle: 無効な(おそらく既に閉じられている)カーネルオブジェクトのハンドルを使用しました。</t>
+      <t>Hassey</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Handle: You used an invalid (probably already closed) kernel object handle.</t>
     <rPh sb="16" eb="18">
-      <t>ムコウ</t>
+      <t>Mukou</t>
     </rPh>
     <rPh sb="50" eb="52">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stack Overflow: スタックを使い果たしました。</t>
+      <t>Syou</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Overflow: The stack is exhausted.</t>
     <rPh sb="21" eb="22">
-      <t>ツカ</t>
+      <t>Tsuka</t>
     </rPh>
     <rPh sb="23" eb="24">
-      <t>ハ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unwind Consolidate: フレーム結合が実行されました。</t>
+      <t>Ha</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unwind Consolidate: Frame consolidation has been performed.</t>
     <rPh sb="24" eb="26">
-      <t>ケツゴウ</t>
+      <t>Pokeweed</t>
     </rPh>
     <rPh sb="27" eb="29">
-      <t>ジッコウ</t>
+      <t>Jiko</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4469,21 +4469,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既に表示、もしくは無効になっているウィンドウをモーダル表示することは出来ません。</t>
+    <t>It is not possible to display windows that are already displayed or disabled in a modal manner.</t>
     <rPh sb="0" eb="1">
-      <t>スデ</t>
+      <t>Sude</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
+      <t>Leopard</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ムコウ</t>
+      <t>Mukou</t>
     </rPh>
     <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
+      <t>Leopard</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>デキ</t>
+      <t>Deki</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4492,18 +4492,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ウィンドウが1個の時モーダル表示することは出来ません。</t>
+    <t>It is not possible to display modal when there is only one window.</t>
     <rPh sb="7" eb="8">
-      <t>コ</t>
+      <t>Ko</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>トキ</t>
+      <t>Toki</t>
     </rPh>
     <rPh sb="12" eb="20">
-      <t>タ</t>
+      <t>Ta</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>デキ</t>
+      <t>Deki</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4516,7 +4516,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Layer クラスか Bitmap クラスのオブジェクトを指定してください</t>
+    <t>Specify an object of Layer class or Bitmap class</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4532,15 +4532,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この操作で mode に omAuto を指定することは出来ません</t>
+    <t>You cannot specify omAuto for mode by this operation</t>
     <rPh sb="2" eb="4">
-      <t>ソウサ</t>
+      <t>Southa</t>
     </rPh>
     <rPh sb="21" eb="23">
-      <t>シテイ</t>
+      <t>City</t>
     </rPh>
     <rPh sb="28" eb="30">
-      <t>デキ</t>
+      <t>Deki</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4549,1013 +4549,1013 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ＭＳ Ｐゴシック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>简体中文</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>发生了内部错误</t>
-  </si>
-  <si>
-    <t>警告：</t>
-  </si>
-  <si>
-    <t>使用运算符时非全局变量放在后面。（请注意：当前运算符在 TJS 2.4.1 有作改动）</t>
-  </si>
-  <si>
-    <t>不能将现有文字转换为 Unicode 文字。包含的有不能识别的文字在内。请确认 data 是否指定有误。</t>
-  </si>
-  <si>
-    <t>不能转换变量类型 %1 到 %2</t>
-  </si>
-  <si>
-    <t>不能将 %1 转换为 Object 类型</t>
-  </si>
-  <si>
-    <t>请指定 ID</t>
-  </si>
-  <si>
-    <t>请使用 = 运算符来对比。（使用 '(A=B)!=0' 来与 0 作对比）</t>
-  </si>
-  <si>
-    <t>进行了错误的表达式</t>
-  </si>
-  <si>
-    <t>内存不足</t>
-  </si>
-  <si>
-    <t>不能从当前表达式中获取到结果</t>
-  </si>
-  <si>
-    <t>发生了访问 null 对象</t>
-  </si>
-  <si>
-    <t>未找到 Member \"%1\"</t>
-  </si>
-  <si>
-    <t>未指名 Member 未找到</t>
-  </si>
-  <si>
-    <t>调用了未实现的方法</t>
-  </si>
-  <si>
-    <t>参数不合法</t>
-  </si>
-  <si>
-    <t>参数个数有误</t>
-  </si>
-  <si>
-    <t>不是一个 function 或者 方法/属性 有误</t>
-  </si>
-  <si>
-    <t>请声明为 Dictionary 或者 Array 对象类型</t>
-  </si>
-  <si>
-    <t>请声明为 Array 对象</t>
-  </si>
-  <si>
-    <t>不能释放 string 内存区域</t>
-  </si>
-  <si>
-    <t>不能创建 string 内存区域</t>
-  </si>
-  <si>
-    <t>不能写 \"break\" 或者 \"continue\" 到这里</t>
-  </si>
-  <si>
-    <t>不能写 \"case\" 到这里</t>
-  </si>
-  <si>
-    <t>不能把 \"return\" 写到这里</t>
-  </si>
-  <si>
-    <t>string/regxp/octet 处理时发生了错误</t>
-  </si>
-  <si>
-    <t>number 处理时发生了错误</t>
-  </si>
-  <si>
-    <t>注释未关闭</t>
-  </si>
-  <si>
-    <t>未知字符：\'%1\'</t>
-  </si>
-  <si>
-    <t>异常发生：%1</t>
-  </si>
-  <si>
-    <t>语法有误 （%1）</t>
-  </si>
-  <si>
-    <t>条件表达式错误</t>
-  </si>
-  <si>
-    <t>父类不存在或者不能定位到父类</t>
-  </si>
-  <si>
-    <t>VM 代码有误</t>
-  </si>
-  <si>
-    <t>错误：取值范围以外</t>
-  </si>
-  <si>
-    <t>对 只读/只写 属性进行了错误操作</t>
-  </si>
-  <si>
-    <t>无效的 object context</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>对象已无效</t>
-  </si>
-  <si>
-    <t>不能在方法之外使用 \"...\"</t>
-  </si>
-  <si>
-    <t>不正确的日期格式</t>
-  </si>
-  <si>
-    <t>不正确的 日期/时间 值</t>
-  </si>
-  <si>
-    <t>不能转换异常 因为 \"Exception\" 不存在</t>
-  </si>
-  <si>
-    <t>不正确的字符串格式</t>
-  </si>
-  <si>
-    <t>被 0 整除了</t>
-  </si>
-  <si>
-    <t>不能重新构造随机数列</t>
-  </si>
-  <si>
-    <t>[TJS2 脚本之外]</t>
-  </si>
-  <si>
-    <t>共计 %1 个对象未释放</t>
-  </si>
-  <si>
-    <t>对象 %1 [%2] 未释放。对象创建在：%2</t>
-  </si>
-  <si>
-    <t>以对象类型和所在位置来分组</t>
-  </si>
-  <si>
-    <t>以为对象类型来分组</t>
-  </si>
-  <si>
-    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
-  </si>
-  <si>
-    <t>写入错误</t>
+    <t>MS P Gothic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplified Chinese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>发生了内错误</t>
+  </si>
+  <si>
+    <t>warning:</t>
+  </si>
+  <si>
+    <t>Non-all-station change amount when using arithmetic, after being released. (Caution note: TJS 2.4.1 Operational revision)</t>
+  </si>
+  <si>
+    <t>Impossible character conversion Unicode character. Inclusive/incapable/non-identifiable characters. Confirmation of whether the confirmation data is correct or not.</t>
+  </si>
+  <si>
+    <t>Unchangeable conversion amount type %1 to %2</t>
+  </si>
+  <si>
+    <t>Impossible Command %1 Conversion Object Type</t>
+  </si>
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Billing usage = Comparing with the calculator. (Use'(A=B)!=0' Compared to 0 works)</t>
+  </si>
+  <si>
+    <t>Progressive completion ceremony</t>
+  </si>
+  <si>
+    <t>Lack of existence</t>
+  </si>
+  <si>
+    <t>Impossible result</t>
+  </si>
+  <si>
+    <t>Creator's visit null null</t>
+  </si>
+  <si>
+    <t>Missing Member \"%1\"</t>
+  </si>
+  <si>
+    <t>Not appointed Member</t>
+  </si>
+  <si>
+    <t>Unimplemented method</t>
+  </si>
+  <si>
+    <t>Illegal number</t>
+  </si>
+  <si>
+    <t>Number of participants</t>
+  </si>
+  <si>
+    <t>Not correct function or method/attribute</t>
+  </si>
+  <si>
+    <t>VOICE STATEMENT Dictionary or Person Array</t>
+  </si>
+  <si>
+    <t>Demand statement Array</t>
+  </si>
+  <si>
+    <t>Impossible release string Intrinsic area</t>
+  </si>
+  <si>
+    <t>Impossible Ken string intrinsic area</t>
+  </si>
+  <si>
+    <t>Impossible photo \"break\" Someone \"continue\"</t>
+  </si>
+  <si>
+    <t>Impossible picture \"case\"</t>
+  </si>
+  <si>
+    <t>Impossible \"return\"</t>
+  </si>
+  <si>
+    <t>string/regxp/octet processing time generation 错误</t>
+  </si>
+  <si>
+    <t>number processing time generation</t>
+  </si>
+  <si>
+    <t>Note not related</t>
+  </si>
+  <si>
+    <t>Unknown character: \'%1\'</t>
+  </si>
+  <si>
+    <t>Defective: %1</t>
+  </si>
+  <si>
+    <t>Language usage (%1)</t>
+  </si>
+  <si>
+    <t>Condition table</t>
+  </si>
+  <si>
+    <t>Absence of paternity or impossibility of orientation</t>
+  </si>
+  <si>
+    <t>VM 虁码有误</t>
+  </si>
+  <si>
+    <t>错误: Other than the 值耼范围</t>
+  </si>
+  <si>
+    <t>Opposite/Transcript attribute progress completion operation</t>
+  </si>
+  <si>
+    <t>Invalid object context</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opposite</t>
+  </si>
+  <si>
+    <t>Unavailable use outside "\"...\"</t>
+  </si>
+  <si>
+    <t>Fraudulent date</t>
+  </si>
+  <si>
+    <t>Incorrect date/time</t>
+  </si>
+  <si>
+    <t>Impossible conversion error \"Exception\" nonexistent</t>
+  </si>
+  <si>
+    <t>Illegal character skewer</t>
+  </si>
+  <si>
+    <t>0 to be removed</t>
+  </si>
+  <si>
+    <t>Impossible new structure</t>
+  </si>
+  <si>
+    <t>[TJS2 Screenplay]</t>
+  </si>
+  <si>
+    <t>Total %1 individual</t>
+  </si>
+  <si>
+    <t>Target elephant %1 [%2] Unsalted. Established with: Zhou: %2</t>
+  </si>
+  <si>
+    <t>Toward the elephant type Japanese-style location</t>
+  </si>
+  <si>
+    <t>Because of the elephant type next group</t>
+  </si>
+  <si>
+    <t>%4: 运行代缁在正在删Exclusively in progress, target %1[%2] / target occupancy: %3</t>
+  </si>
+  <si>
+    <t>Photocopy</t>
   </si>
   <si>
     <t>读取错误</t>
   </si>
   <si>
-    <t>查询错误</t>
-  </si>
-  <si>
-    <t>读取 Bytecode 错误。文件已损坏或者该文件不是 bytecode 文件。</t>
-  </si>
-  <si>
-    <t>对象的哈希图与日志版本不一致</t>
-  </si>
-  <si>
-    <t>对象哈希图已损坏</t>
-  </si>
-  <si>
-    <t>未知错误：%08X</t>
-  </si>
-  <si>
-    <t>未知打包/解包模板字符</t>
-  </si>
-  <si>
-    <t>未知 bit string 字符</t>
-  </si>
-  <si>
-    <t>未知 16 进制字符</t>
-  </si>
-  <si>
-    <t>不支持 uuencode</t>
-  </si>
-  <si>
-    <t>不支持 BER 压缩</t>
-  </si>
-  <si>
-    <t>不支持解包 \'p\'</t>
-  </si>
-  <si>
-    <t>详细版本信息可以通过添加 -about 参数来启动查看。</t>
-  </si>
-  <si>
-    <t>在 %1 行 %2 处发生了内部错误。</t>
-  </si>
-  <si>
-    <t>吉里吉里Z 核心可执行文件 /%1 （编译日期 %DATE% %TIME%）TJS2 %2 Copyright (C) 1997-2013 W.Dee 及其贡献者 All rights reserved.</t>
-  </si>
-  <si>
-    <t>已启动调试设置。</t>
-  </si>
-  <si>
-    <t>命令行参数 %1 = %2 是不合法的。已使用默认值。</t>
-  </si>
-  <si>
-    <t>命令行参数 %1 = %2 是不合法的。</t>
-  </si>
-  <si>
-    <t>未实现。</t>
-  </si>
-  <si>
-    <t>不能打开文件 %1</t>
-  </si>
-  <si>
-    <t>不能找到文件 %1</t>
-  </si>
-  <si>
-    <t>不能写入文件 %1</t>
-  </si>
-  <si>
-    <t>不能在归档 %2 中找到文件 %1</t>
-  </si>
-  <si>
-    <t>非法路径名 %1</t>
-  </si>
-  <si>
-    <t>不支持的媒体类型文件 \"%1\"</t>
-  </si>
-  <si>
-    <t>不能解绑 XP3 exe %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%1 不是 XP3 归档文件或者是未支持的文件</t>
-  </si>
-  <si>
-    <t>请使用路径分隔符 '&gt;' 或者 '/'</t>
-  </si>
-  <si>
-    <t>（Attention）文件名 \"%1\" 含有 '#'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能从 %1 中获取到本地名称</t>
+    <t>毥询错误</t>
+  </si>
+  <si>
+    <t>Bytecode 鯙误. Bytes that are not valid.</t>
+  </si>
+  <si>
+    <t>No match</t>
+  </si>
+  <si>
+    <t>Opposite the elephant</t>
+  </si>
+  <si>
+    <t>Unknown story: %08X</t>
+  </si>
+  <si>
+    <t>Unknown packaging/unpacking</t>
+  </si>
+  <si>
+    <t>Unknown bit string letter</t>
+  </si>
+  <si>
+    <t>Unknown hexadecimal character</t>
+  </si>
+  <si>
+    <t>Unsupported uuencode</t>
+  </si>
+  <si>
+    <t>No support BER compression</t>
+  </si>
+  <si>
+    <t>Unsupported unpacking \'p\'</t>
+  </si>
+  <si>
+    <t>Detailed version This information can be passed through -about.</t>
+  </si>
+  <si>
+    <t>Currently %1 line %2 processing completed.</t>
+  </si>
+  <si>
+    <t>Kiri Kiri Z Z Kokoro Katsuyuki Sentence /%1 (Edit date %DATE% %TIME%) TJS2 %2 Copyright (C) 1997-2013 W.Dee and its contributors All rights reserved.</t>
+  </si>
+  <si>
+    <t>Established experimental equipment.</t>
+  </si>
+  <si>
+    <t>Number of commanders %1 = %2 Illegal. Used 默认值.</t>
+  </si>
+  <si>
+    <t>Number of commanders %1 = %2 Illegal.</t>
+  </si>
+  <si>
+    <t>Unrealized.</t>
+  </si>
+  <si>
+    <t>Impossible to complete statement %1</t>
+  </si>
+  <si>
+    <t>Impossible incidents %1</t>
+  </si>
+  <si>
+    <t>Impossible copy statement %1</t>
+  </si>
+  <si>
+    <t>Impossible 归档 %2 中找到文件 %1</t>
+  </si>
+  <si>
+    <t>Non-path diameter name %1</t>
+  </si>
+  <si>
+    <t>Unsupported media type sentence \"%1\"</t>
+  </si>
+  <si>
+    <t>Unsolvable XP3 exe %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 Unreasonable XP3 归档 sentence case or person moral case unsupported case</t>
+  </si>
+  <si>
+    <t>Request path diameter separator'&gt;' or person'/'</t>
+  </si>
+  <si>
+    <t>(Attention) Subject \"%1\" Contains'#'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible because %1</t>
   </si>
   <si>
     <t>读取发生了错误</t>
   </si>
   <si>
-    <t>写入发生了错误</t>
-  </si>
-  <si>
-    <t>查找发生了错误</t>
-  </si>
-  <si>
-    <t>截取过程中发生了错误</t>
-  </si>
-  <si>
-    <t>不能分配内存</t>
-  </si>
-  <si>
-    <t>解压缩失败</t>
-  </si>
-  <si>
-    <t>压缩失败</t>
-  </si>
-  <si>
-    <t>不能写入到归档中</t>
-  </si>
-  <si>
-    <t>不支持密码模式 %1</t>
-  </si>
-  <si>
-    <t>不支持的编码格式 %1</t>
-  </si>
-  <si>
-    <t>不能识别 %1 文字列。</t>
-  </si>
-  <si>
-    <t>%1 是未知的图片格式</t>
-  </si>
-  <si>
-    <t>未找到对应扩展名为 %1 的文件</t>
-  </si>
-  <si>
-    <t>mask 图片的大小和主要图片的大小不一致</t>
-  </si>
-  <si>
-    <t>区域图片 %1 与主要图片的大小不一致</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>载入图片中发生了错误 /%1</t>
-  </si>
-  <si>
-    <t>载入 JPEG 图片发生了错误 /%1</t>
-  </si>
-  <si>
-    <t>载入 PNG 图片过程中发生了错误 /%1</t>
-  </si>
-  <si>
-    <t>载入 ERI 图片过程中发生了错误 /%1</t>
-  </si>
-  <si>
-    <t>载入 TLG 图片过程中发生了错误 /%1</t>
-  </si>
-  <si>
-    <t>图片保存格式无效（%1）</t>
-  </si>
-  <si>
-    <t>发生了对 8bpp 图片格式无效的操作。</t>
-  </si>
-  <si>
-    <t>发生了对 32bpp 图片格式无效的操作。</t>
-  </si>
-  <si>
-    <t>请声明为 Window 类的对象。</t>
-  </si>
-  <si>
-    <t>请声明为 Layer 类的对象。</t>
-  </si>
-  <si>
-    <t>请声明为 Layer 类或者 Bitmap 类的对象。</t>
-  </si>
-  <si>
-    <t>不能指定为 omAuto 模式。</t>
-  </si>
-  <si>
-    <t>图层大小不能指定为 0 以下的数值。</t>
-  </si>
-  <si>
-    <t>不能把主图层设为为隐藏。</t>
-  </si>
-  <si>
-    <t>不能移动主图层。</t>
-  </si>
-  <si>
-    <t>不能将父图层设置为自身。</t>
-  </si>
-  <si>
-    <t>图片位置设置有误。</t>
-  </si>
-  <si>
-    <t>已经设置为 Modal 层或者不能设置隐藏层/无效层为弹出层。</t>
-  </si>
-  <si>
-    <t>非可描绘层类型。</t>
-  </si>
-  <si>
-    <t>来源 layer 未包含图片。</t>
-  </si>
-  <si>
-    <t>未被支持的 layer 类型 %1</t>
-  </si>
-  <si>
-    <t>不可描绘的 face 类型</t>
-  </si>
-  <si>
-    <t>不能转换 layer 类型到指定的 direction</t>
-  </si>
-  <si>
-    <t>当前字型不支持负透明度。</t>
-  </si>
-  <si>
-    <t>转换源包含 bitmap 以外的领域。请指定为正确的转换范围。</t>
-  </si>
-  <si>
-    <t>模糊（blur）矩形的范围一定是包含（0,0）的。不能指定 left 和 right 两个都是正直或者都是负值。（top 和 bottom 一样。）</t>
-  </si>
-  <si>
-    <t>指定的模糊（blur）矩形的范围太大。模糊矩形的像素值应小于 1677 万。</t>
-  </si>
-  <si>
-    <t>正在处理 focus 的过程中不能进行新的 focus 指定。</t>
-  </si>
-  <si>
-    <t>Window 内未找到 Layer。</t>
-  </si>
-  <si>
-    <t>Window 已经设置过 PrimaryLayer 了。</t>
-  </si>
-  <si>
-    <t>事件（Event）%1 需要指定参数（Parameter）。</t>
-  </si>
-  <si>
-    <t>事件（Event）%1 需要指定第二个参数（Parameter）%2</t>
-  </si>
-  <si>
-    <t>未知事件(Event) %1</t>
-  </si>
-  <si>
-    <t>超过允许矩形指定的范围了</t>
-  </si>
-  <si>
-    <t>在画面更新时不能执行该方法</t>
-  </si>
-  <si>
-    <t>实例化当前类失败</t>
-  </si>
-  <si>
-    <t>未支持的 Wave 文件格式 %1</t>
-  </si>
-  <si>
-    <t>在使用新的 Transition 之前需要先停止之前的。在同一 Layer 上执行复数的 Transition 时发生了错误。</t>
-  </si>
-  <si>
-    <t>Transition Handler 发生了错误：%1</t>
-  </si>
-  <si>
-    <t>Transition %1 已被注册过</t>
-  </si>
-  <si>
-    <t>未找到 %1 transition handler.</t>
-  </si>
-  <si>
-    <t>请声明 transition 发生的源</t>
-  </si>
-  <si>
-    <t>Layer 不能持有图片</t>
-  </si>
-  <si>
-    <t>执行 transition 的源和目的都需要持有图片</t>
-  </si>
-  <si>
-    <t>载入 rule 图片 %1 失败</t>
-  </si>
-  <si>
-    <t>请指定 %1 设置</t>
-  </si>
-  <si>
-    <t>发生 transition 的源（%1）和目的（%2） 的 layer 大小不一致</t>
-  </si>
-  <si>
-    <t>发生 transition 的源是自身</t>
-  </si>
-  <si>
-    <t>警告：%1 方法的第二个参数 %2 已在 2.23 beta 2 中开始不推荐使用。请使用 Layer.holdAlpha 属性作替代。</t>
-  </si>
-  <si>
-    <t>不能同时连接多个 WaveSoundBuffer</t>
-  </si>
-  <si>
-    <t>Window 大小必须在 64 到 32768 之间</t>
-  </si>
-  <si>
-    <t>Overlap 数值范围必须在 2 到 32 之间</t>
-  </si>
-  <si>
-    <t>正在异步载入 Bitmap 中</t>
-  </si>
-  <si>
-    <t>拷贝粘贴板数据失败</t>
-  </si>
-  <si>
-    <t>UTF-16 载入失败，转换为 UTF-8</t>
-  </si>
-  <si>
-    <t>（info）读取启动脚本中：</t>
-  </si>
-  <si>
-    <t>（info）启动脚本读取完毕！</t>
-  </si>
-  <si>
-    <t>sizeof(tjs_char) 只能为 2 或者 4</t>
-  </si>
-  <si>
-    <t>媒体 \"%1\" 已被注册</t>
-  </si>
-  <si>
-    <t>媒体 \"%1\" 未注册</t>
-  </si>
-  <si>
-    <t>（info）自动路径再构建中...</t>
-  </si>
-  <si>
-    <t>（info）共找到 %1 个文件，已使用 %2 个文件。（耗时 %3 ms）</t>
-  </si>
-  <si>
-    <t>获取 System.onActive/onDeactive 发生错误：%1</t>
-  </si>
-  <si>
-    <t>主机环境为非 16 位 Unicode 系统</t>
-  </si>
-  <si>
-    <t>（info）尝试从 %1 中读取 XP3 虚拟文件系统信息中</t>
-  </si>
-  <si>
-    <t>指定的文件已经被保护！</t>
-  </si>
-  <si>
-    <t>（info）失败。</t>
-  </si>
-  <si>
-    <t>（info）完成。（共计：%1 个文件，%2 块。）</t>
-  </si>
-  <si>
-    <t>微软雅黑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能打开字体文件 '%1$s'</t>
-  </si>
-  <si>
-    <t>不能使用 '%1$s' 字体</t>
-  </si>
-  <si>
-    <t>字体光栅化发生错误</t>
-  </si>
-  <si>
-    <t>不支持 BitFields</t>
-  </si>
-  <si>
-    <t>不支持压缩 BMP</t>
-  </si>
-  <si>
-    <t>不支持的调色图像的色彩类型</t>
-  </si>
-  <si>
-    <t>该文件不是一个 Windows BMP 文件或者 OS/2 BMP 文件</t>
-  </si>
-  <si>
-    <t>色彩深度无效</t>
-  </si>
-  <si>
-    <t>无效插件：%1</t>
-  </si>
-  <si>
-    <t>插件在使用过程中不能进行释放</t>
-  </si>
-  <si>
-    <t>未加载插件：%1</t>
-  </si>
-  <si>
-    <t>不能为 Bitmap 分配内存：%1（size=%2）</t>
-  </si>
-  <si>
-    <t>%1 超过了扫描范围（正常为 0 到 %2）</t>
-  </si>
-  <si>
-    <t>无效的 CD-DA 驱动器</t>
-  </si>
-  <si>
-    <t>未找到 CD-DA 驱动器</t>
-  </si>
-  <si>
-    <t>MCI 发生了错误：%1</t>
-  </si>
-  <si>
-    <t>无效的 SMF 文件：%1</t>
-  </si>
-  <si>
-    <t>指定了无效的 MIDI 信息</t>
-  </si>
-  <si>
-    <t>DirectSound 初始化失败：%1</t>
-  </si>
-  <si>
-    <t>无效的 loop 信息：%1</t>
-  </si>
-  <si>
-    <t>指定的菜单项不是子菜单项</t>
-  </si>
-  <si>
-    <t>Direct3D 初始化失败：%1</t>
-  </si>
-  <si>
-    <t>未找到合适的画面显示模式：%1</t>
-  </si>
-  <si>
-    <t>不能切换到全屏模式：%1</t>
-  </si>
-  <si>
-    <t>在全屏模式下无效的属性：%1</t>
-  </si>
-  <si>
-    <t>在全屏模式下无效的方法：%2</t>
-  </si>
-  <si>
-    <t>不能载入鼠标光标：%1</t>
-  </si>
-  <si>
-    <t>无效的 krmovie.dll 文件。krmovie.dll/krflash.dll 版本有误。</t>
-  </si>
-  <si>
-    <t>预渲染字体映射失败：%1</t>
-  </si>
-  <si>
-    <t>不能写入 %1 文件</t>
-  </si>
-  <si>
-    <t>不能删除文件。%1 文件不存在。</t>
-  </si>
-  <si>
-    <t>不能执行 %1 文件。</t>
-  </si>
-  <si>
-    <t>控制台：</t>
-  </si>
-  <si>
-    <t>（info）正在列出 %1 中的文件...</t>
-  </si>
-  <si>
-    <t>（info）总物理内存：%1</t>
-  </si>
-  <si>
-    <t>可执行文件太小</t>
-  </si>
-  <si>
-    <t>（info）载入可执行文件内置选项失败（已忽略）：%1</t>
-  </si>
-  <si>
-    <t>（info）成功载入可执行文件内置选项。</t>
-  </si>
-  <si>
-    <t>未找到文件。</t>
-  </si>
-  <si>
-    <t>（info）载入配置文件 \"%1\" 失败（已忽略）：%2</t>
-  </si>
-  <si>
-    <t>（info）成功载入配置文件 \"%1\"</t>
-  </si>
-  <si>
-    <t>（info）Data 路径不存在，尝试新建... %1</t>
-  </si>
-  <si>
-    <t>成功。</t>
-  </si>
-  <si>
-    <t>失败。</t>
-  </si>
-  <si>
-    <t>（info）Data 路径：%1</t>
-  </si>
-  <si>
-    <t>（无）</t>
-  </si>
-  <si>
-    <t>（info）CPU 时钟频率（大致数值）：%dMHz</t>
-  </si>
-  <si>
-    <t>程序已在 %1（%2）上启动。</t>
-  </si>
-  <si>
-    <t>未知错误！</t>
-  </si>
-  <si>
-    <t>退出识别代码：%d\n</t>
-  </si>
-  <si>
-    <t>发生了致命的错误。</t>
-  </si>
-  <si>
-    <t>当前机器有集成数位设备。</t>
-  </si>
-  <si>
-    <t>当前机器有外置触控数位设备。</t>
-  </si>
-  <si>
-    <t>当前机器有集成数位笔设备。</t>
-  </si>
-  <si>
-    <t>当前机器有外置数位笔设备。</t>
-  </si>
-  <si>
-    <t>当前机器支持多点触控。</t>
-  </si>
-  <si>
-    <t>触控数位设备已准备就绪。</t>
-  </si>
-  <si>
-    <t>CPU 检测失败。</t>
-  </si>
-  <si>
-    <t>CPU 检测失败：不支持低于 P4 系列的 CPU。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（info）CPU #%1 : </t>
-  </si>
-  <si>
-    <t>CPU 检查失败：不支持的 CPU 型号 \r\n%1</t>
-  </si>
-  <si>
-    <t>（info）最终检测出 CPU 所支持的特性：%1</t>
-  </si>
-  <si>
-    <t>（info）CPU 时钟频率：%.1fMHz</t>
-  </si>
-  <si>
-    <t>创建 Direct3D9 失败。</t>
-  </si>
-  <si>
-    <t>备用缓冲区格式未确定。</t>
-  </si>
-  <si>
-    <t>创建 Direct3D9 设备失败。</t>
-  </si>
-  <si>
-    <t>设置 viewport 失败。</t>
-  </si>
-  <si>
-    <t>设置渲染状态失败。</t>
-  </si>
-  <si>
-    <t>请使用能被 2 整除的 surface。</t>
-  </si>
-  <si>
-    <t>BasicDrawDevice: 创建 Direct3D9 设备失败：%1</t>
-  </si>
-  <si>
-    <t>BasicDrawDevice: 创建 Direct3D9 设备失败：未知原因</t>
-  </si>
-  <si>
-    <t>BasicDrawDevice: Texture 已被锁定（在未调用 EndBitmapCompletion() 的情况下 StartBitmapCompletion() 已经被调用了 2 次）,解锁中</t>
-  </si>
-  <si>
-    <t>内部错误 /HR=%1</t>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_RESTART</t>
-  </si>
-  <si>
-    <t>（info）Susie 插件信息：%1</t>
-  </si>
-  <si>
-    <t>（fatal）不能创建任何绘图对象。</t>
-  </si>
-  <si>
-    <t>无效的视频尺寸</t>
-  </si>
-  <si>
-    <t>从 Rough VSync API 中读取：%1</t>
-  </si>
-  <si>
-    <t>Rough VSync 内部仍旧有错误，假定为默认值（16）</t>
-  </si>
-  <si>
-    <t>（info）载入 Direct3D...</t>
-  </si>
-  <si>
-    <t>（info）environment：使用 %1</t>
-  </si>
-  <si>
-    <t>（info）查找全屏最佳分辨率中...</t>
-  </si>
-  <si>
-    <t>（info）condition：推荐屏幕模式：%1</t>
-  </si>
-  <si>
-    <t>（info）condition：模式：%1</t>
-  </si>
-  <si>
-    <t>（info）condition：缩放模式：%1</t>
-  </si>
-  <si>
-    <t>（info）environment：默认屏幕模式：%1</t>
-  </si>
-  <si>
-    <t>（info）environment：默认屏幕比例：%1:%2</t>
-  </si>
-  <si>
-    <t>（info）environment：可用显示模式：</t>
-  </si>
-  <si>
-    <t>（info）Panic！未从驱动中找到合适的屏幕模式。尝试使用默认画面尺寸和色彩数。</t>
-  </si>
-  <si>
-    <t>（info）尝试使用 %1 屏幕显示模式。</t>
-  </si>
-  <si>
-    <t>所有屏幕显示模式都已测试，未找到可用的。</t>
-  </si>
-  <si>
-    <t>（info）成功切换屏幕显示模式。</t>
-  </si>
-  <si>
-    <t>D3D：内部驱动错误。请关闭程序后重新启动。</t>
-  </si>
-  <si>
-    <t>D3D：Direct3D 没有足够的显存来执行该操作。</t>
-  </si>
-  <si>
-    <t>D3D：Direct3D 不能分配有效的内存来调用。</t>
-  </si>
-  <si>
-    <t>D3D：不支持的色彩操作类型。</t>
-  </si>
-  <si>
-    <t>D3D：不支持的色彩参数。</t>
-  </si>
-  <si>
-    <t>D3D：不支持的 alpha 通道操作类型。</t>
-  </si>
-  <si>
-    <t>D3D：不支持的 alpha 通道参数类型。</t>
-  </si>
-  <si>
-    <t>D3D：当前设备不支持所查询的技术。</t>
-  </si>
-  <si>
-    <t>未使用。</t>
-  </si>
-  <si>
-    <t>D3D：当前设备不支持指定的尺寸或者显示模式。</t>
-  </si>
-  <si>
-    <t>D3D：不支持指定的加密算法。</t>
-  </si>
-  <si>
-    <t>D3D：Direct3D 子系统内发生未知错误。</t>
-  </si>
-  <si>
-    <t>D3D：未知错误。</t>
-  </si>
-  <si>
-    <t>%1 个： [%2]\r\n                     %3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%1 个：[%2]\n                     %3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%1 个： [%2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%4：运行代码在正在删除的进城中，对象 %1[%2] / 对象创建在：%3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不支持的头文件版本。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（info）触下…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... 已中断 [已超时]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ... 已中断 [超出字节限制]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DrawGlyph 失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Panic！Layer 对象没有属性构造方法。未进行调用构造方法？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未知 transition 类型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未知 Update 类型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Update 类型：暂不支持 tutGiveUpdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>错误代码：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>libpng 错误。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未知色彩调色类型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JPEG 文件不支持色彩调整</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未知色彩类型</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>图片过大</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保存 PNG 时出错</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG 图片不能用作 province(_p) 或者 mask(_m) 图像的 universal transition rule。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">不支持的色彩数量 : </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data flag 必须为 0 (所有的 flag 当前都未被支持)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不支持的色彩类型：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>暂未支持外置 golomb bit length table.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不支持 entropy 编码方法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG header 无效或不支持的 TLG 版本。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，名字长度后面缺少列。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，缺少等号后面的值</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，值长度后面缺少列。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TLG SDS tag 结构异常，tag 后面缺少逗号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文件大小为 0。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分配内存时发生错误。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>读取文件时发生错误。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无效的预渲染字体文件或者未找到签名文件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非 16bit Unicode 字体文件。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无效的 header 版本。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaveTLG6: 内存不足</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SaveTLG6:bit 长度太大 (可能是所给图片尺寸过大的原因。)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能从绘图设备中获取到 interface 信息。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_RESTART</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADFLAGS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADPARAM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_FAILED</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_BADMODE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ChangeDisplaySettings 失败: DISP_CHANGE_NOTUPDATED</t>
+    <t>Photocopying production</t>
+  </si>
+  <si>
+    <t>查找发生了错误诙误</t>
+  </si>
+  <si>
+    <t>截取process中发生了错误</t>
+  </si>
+  <si>
+    <t>Impossible distribution</t>
+  </si>
+  <si>
+    <t>Decompression</t>
+  </si>
+  <si>
+    <t>Loss of pressure</t>
+  </si>
+  <si>
+    <t>Impossible copying is in progress</t>
+  </si>
+  <si>
+    <t>Unsupported secret type %1</t>
+  </si>
+  <si>
+    <t>Unsupported editing style %1</t>
+  </si>
+  <si>
+    <t>Impossible identification %1 character string.</t>
+  </si>
+  <si>
+    <t>%1 Yes unknown</t>
+  </si>
+  <si>
+    <t>找来对应扩 Exhibition Names %1 target articles</t>
+  </si>
+  <si>
+    <t>mask MATCHING MATCHING MAJOR MATCHING MATCHING</t>
+  </si>
+  <si>
+    <t>Area map piece %1 Major piece size mismatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Included 图片中发生了错误/%1</t>
+  </si>
+  <si>
+    <t>Included JPEG 图片发生了错误/%1</t>
+  </si>
+  <si>
+    <t>Included PNG 图片过程中发生了错误/%1</t>
+  </si>
+  <si>
+    <t>Included ERI 图片 程中中发生了错误/%1</t>
+  </si>
+  <si>
+    <t>Included TLG 图片 程中中发生了错误/%1</t>
+  </si>
+  <si>
+    <t>图片保护法Disable(%1)</t>
+  </si>
+  <si>
+    <t>发生了对8bpp 图 Single-form invalid operation.</t>
+  </si>
+  <si>
+    <t>发生了对32bpp 图单方式 Invalid operation.</t>
+  </si>
+  <si>
+    <t>Claim statement Window.</t>
+  </si>
+  <si>
+    <t>Claim statement Layer A similar target.</t>
+  </si>
+  <si>
+    <t>Demand statement Layer type or Bitmap type target.</t>
+  </si>
+  <si>
+    <t>Impossible specification omAuto model.</t>
+  </si>
+  <si>
+    <t>The number of layers is 0 or less.</t>
+  </si>
+  <si>
+    <t>Impossible control diagram layer design.</t>
+  </si>
+  <si>
+    <t>Immovable main map layer.</t>
+  </si>
+  <si>
+    <t>Impossible shobu diagram layer itself.</t>
+  </si>
+  <si>
+    <t>图片位置设定有误.</t>
+  </si>
+  <si>
+    <t>The existing layer or modal layer or the non-personalized layer / ineffective layer.</t>
+  </si>
+  <si>
+    <t>Non-drawable layer type.</t>
+  </si>
+  <si>
+    <t>Raigen layer not included.</t>
+  </si>
+  <si>
+    <t>Unsupported layer type %1</t>
+  </si>
+  <si>
+    <t>Undrawable face type</t>
+  </si>
+  <si>
+    <t>Irreversible conversion layer type specific direction</t>
+  </si>
+  <si>
+    <t>This front type unsupported negative transparency.</t>
+  </si>
+  <si>
+    <t>Area other than the conversion source inclusion bitmap. Specified billing conversion.</t>
+  </si>
+  <si>
+    <t>Blur rectangular shape that is consistent (0,0). Impossible designation left, right, both. (Top sum bottom one sample.)</t>
+  </si>
+  <si>
+    <t>Designated blur (rectangular size). Imitation rectangular image.</t>
+  </si>
+  <si>
+    <t>Ordinary processing focus Impossible progress during the process Progressive new focus designation.</t>
+  </si>
+  <si>
+    <t>Window not yet reached layer.</t>
+  </si>
+  <si>
+    <t>Window completed by Primary Layer.</t>
+  </si>
+  <si>
+    <t>Event %1 Demand-specified number of participants (Parameter).</t>
+  </si>
+  <si>
+    <t>Event (%1) Demand designation second number (Parameter)%2</t>
+  </si>
+  <si>
+    <t>Unknown event (Event) %1</t>
+  </si>
+  <si>
+    <t>Super-extra license rectangular specification</t>
+  </si>
+  <si>
+    <t>Impossible to update the current screen</t>
+  </si>
+  <si>
+    <t>Illustrated failure</t>
+  </si>
+  <si>
+    <t>Unsupported Wave case status %1</t>
+  </si>
+  <si>
+    <t>In-use new transition Before the stop of customers. Currently in the same layer.</t>
+  </si>
+  <si>
+    <t>Transition Handler 发生了错误: %1</t>
+  </si>
+  <si>
+    <t>Transition %1 already received</t>
+  </si>
+  <si>
+    <t>Mikito %1 transition handler.</t>
+  </si>
+  <si>
+    <t>Demand statement transition generative source</t>
+  </si>
+  <si>
+    <t>Layer impossible possession piece</t>
+  </si>
+  <si>
+    <t>执行 transition 颧行translation purpose city demand holding</t>
+  </si>
+  <si>
+    <t>Loading rule 图片 %1 Loss</t>
+  </si>
+  <si>
+    <t>Specified billing %1 installation</t>
+  </si>
+  <si>
+    <t>发生 transition Target (%1) Japanese purpose (%2) Target layer</t>
+  </si>
+  <si>
+    <t>Genesis transition</t>
+  </si>
+  <si>
+    <t>Warning: %1 Number of second methodological participants %2 Existing 2.23 beta 2 Medium start failure. Request Use Layer.holdAlpha attribute replacement fee.</t>
+  </si>
+  <si>
+    <t>Impossible simultaneous connection multiple WaveSoundBuffer</t>
+  </si>
+  <si>
+    <t>Window Large and small required 64 to 32768</t>
+  </si>
+  <si>
+    <t>Overlap 值范围 must be required 2 to 32</t>
+  </si>
+  <si>
+    <t>异异steploading In Bitmap</t>
+  </si>
+  <si>
+    <t>Torture sticky plate number</t>
+  </si>
+  <si>
+    <t>UTF-16 loading loss, conversion UTF-8</t>
+  </si>
+  <si>
+    <t>(Info) Written by Tatorito:</t>
+  </si>
+  <si>
+    <t>(Info) Completed the screenplay!</t>
+  </si>
+  <si>
+    <t>sizeof(tjs_char) 只nom 2 or 4</t>
+  </si>
+  <si>
+    <t>Medium \"%1\" Already ordered</t>
+  </si>
+  <si>
+    <t>Medium \"%1\" Not ordered</t>
+  </si>
+  <si>
+    <t>(Info) Reconstructing the automatic road diameter...</t>
+  </si>
+  <si>
+    <t>(Info) Co-development %1 individual sentences, used %2 individual sentences. (At wear %3 ms)</t>
+  </si>
+  <si>
+    <t>获取 System.onActive/onDeactive 发生错误: %1</t>
+  </si>
+  <si>
+    <t>Main environment 16th place Unicode system</t>
+  </si>
+  <si>
+    <t>(Info) 尝试through %1 中读取 XP3 信诟文件系统 信息中</t>
+  </si>
+  <si>
+    <t>Specified sentence already protected!</t>
+  </si>
+  <si>
+    <t>(Info) Loss.</t>
+  </si>
+  <si>
+    <t>(Info) completed. (Collaboration: %1 individual cases, %2 cases.)</t>
+  </si>
+  <si>
+    <t>Micro black</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible to open character style sentence'%1$s'</t>
+  </si>
+  <si>
+    <t>Impossible use'%1$s' font</t>
+  </si>
+  <si>
+    <t>Typography Kouki Kasei</t>
+  </si>
+  <si>
+    <t>Not supported BitFields</t>
+  </si>
+  <si>
+    <t>Unsupported compression BMP</t>
+  </si>
+  <si>
+    <t>Unsupported color matching image type</t>
+  </si>
+  <si>
+    <t>The case is not correct 1 Windows BMP case or person OS/2 BMP case</t>
+  </si>
+  <si>
+    <t>Color depth invalid</t>
+  </si>
+  <si>
+    <t>Ineffective complaint: %1</t>
+  </si>
+  <si>
+    <t>Unable to proceed while in the process of being used</t>
+  </si>
+  <si>
+    <t>Unpublished claim: %1</t>
+  </si>
+  <si>
+    <t>Impossible Bitmap distribution intrinsic: %1 (size=%2)</t>
+  </si>
+  <si>
+    <t>%1 Overdue 艫范围 (normally 0 to %2)</t>
+  </si>
+  <si>
+    <t>Ineffective CD-DA Drive</t>
+  </si>
+  <si>
+    <t>Not reached CD-DA</t>
+  </si>
+  <si>
+    <t>MCI 发生了错误: %1</t>
+  </si>
+  <si>
+    <t>Invalid SMF subject: %1</t>
+  </si>
+  <si>
+    <t>Specified invalid MIDI information</t>
+  </si>
+  <si>
+    <t>DirectSound Initialization loss: %1</t>
+  </si>
+  <si>
+    <t>Ineffective loop confidence: %1</t>
+  </si>
+  <si>
+    <t>Specified vegetables single item</t>
+  </si>
+  <si>
+    <t>Direct3D initial loss: %1</t>
+  </si>
+  <si>
+    <t>Undisplayed suitable screen display type: %1</t>
+  </si>
+  <si>
+    <t>Impossible changeover all screen type: %1</t>
+  </si>
+  <si>
+    <t>Inactive attribute under categorization: %1</t>
+  </si>
+  <si>
+    <t>Ineffective method under all types:</t>
+  </si>
+  <si>
+    <t>Impossible loading mouse mark: %1</t>
+  </si>
+  <si>
+    <t>Invalid krmovie.dll sentence. krmovie.dll/krflash.dll Version book version.</t>
+  </si>
+  <si>
+    <t>Lost print quality: %1</t>
+  </si>
+  <si>
+    <t>Impossible copy %1 sentence</t>
+  </si>
+  <si>
+    <t>Impossible eradication sentence. %1 No sentence exists.</t>
+  </si>
+  <si>
+    <t>Impossible 执行 %1 sentence.</t>
+  </si>
+  <si>
+    <t>Control stand:</t>
+  </si>
+  <si>
+    <t>(Info) Standing in line %1</t>
+  </si>
+  <si>
+    <t>(Info) Shy physics intrinsic: %1</t>
+  </si>
+  <si>
+    <t>执行文件Tall and small</t>
+  </si>
+  <si>
+    <t>(Info) Included 执行文件 In-placement item failure (Isn): %1</t>
+  </si>
+  <si>
+    <t>(Info) Succeeded in-applicable inline items.</t>
+  </si>
+  <si>
+    <t>Uncompleted case.</t>
+  </si>
+  <si>
+    <t>(Info) Included placements \"%1\" Lost (%): %2</t>
+  </si>
+  <si>
+    <t>(Info) Successful placement placement statement \"%1\"</t>
+  </si>
+  <si>
+    <t>(Info) Data Road diameter does not exist, 尝试新建... %1</t>
+  </si>
+  <si>
+    <t>success.</t>
+  </si>
+  <si>
+    <t>failure.</t>
+  </si>
+  <si>
+    <t>(Info) Data Road diameter: %1</t>
+  </si>
+  <si>
+    <t>(No)</t>
+  </si>
+  <si>
+    <t>(Info) CPU time rate (great match): %dMHz</t>
+  </si>
+  <si>
+    <t>The order has already existed %1 (%2).</t>
+  </si>
+  <si>
+    <t>The unknown story!</t>
+  </si>
+  <si>
+    <t>Exit identification: %d\n</t>
+  </si>
+  <si>
+    <t>The end of life.</t>
+  </si>
+  <si>
+    <t>For the time being equipment equipped with several units.</t>
+  </si>
+  <si>
+    <t>This equipment is equipped with an external touch panel for several units.</t>
+  </si>
+  <si>
+    <t>For the time being, equipped with several equipments.</t>
+  </si>
+  <si>
+    <t>This equipment is equipped with several external equipments.</t>
+  </si>
+  <si>
+    <t>For the time being, it is a multi-touch device supported by equipment.</t>
+  </si>
+  <si>
+    <t>Tactile number setting equipment prepared.</t>
+  </si>
+  <si>
+    <t>CPU failure.</t>
+  </si>
+  <si>
+    <t>CPU failure: not supported P4 series CPU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Info) CPU #%1: </t>
+  </si>
+  <si>
+    <t>CPU loss: unsupported CPU model number \r\n%1</t>
+  </si>
+  <si>
+    <t>(Info) Final measurement CPU supportive characteristics: %1</t>
+  </si>
+  <si>
+    <t>(Info) CPU clock rate: %.1fMHz</t>
+  </si>
+  <si>
+    <t>Soken Direct3D9 Lost.</t>
+  </si>
+  <si>
+    <t>Not available for preparation.</t>
+  </si>
+  <si>
+    <t>Soken Direct3D9 equipment failure.</t>
+  </si>
+  <si>
+    <t>Installation viewport failure.</t>
+  </si>
+  <si>
+    <t>Loss of installed condition.</t>
+  </si>
+  <si>
+    <t>Claim Usable 2 divisible surface.</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Soken Direct3D9 Equipment failure: %1</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Soken Direct3D9 Equipment Failure: Unknown Cause</t>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Texture already covered (EndBitmapCompletion() target status StartBitmapCompletion() already transferred 2nd), unsolving</t>
+  </si>
+  <si>
+    <t>Internal code/HR=%1</t>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_RESTART</t>
+  </si>
+  <si>
+    <t>(Info) Susie Confidence: %1</t>
+  </si>
+  <si>
+    <t>(Fatal) Impossible 创建本 What's in the picture.</t>
+  </si>
+  <si>
+    <t>Ineffective scale</t>
+  </si>
+  <si>
+    <t>通 Rough VSync API 中读取: %1</t>
+  </si>
+  <si>
+    <t>Rough VSync The inside of the old Ryu Vincho, 假定廘认值（16）</t>
+  </si>
+  <si>
+    <t>(Info) Loaded Direct3D...</t>
+  </si>
+  <si>
+    <t>(Info) environment: use %1</t>
+  </si>
+  <si>
+    <t>(Info) 查找全屏 The most savvy ratio...</t>
+  </si>
+  <si>
+    <t>(Info) condition: Promotion screen type: %1</t>
+  </si>
+  <si>
+    <t>(Info) condition: Type: %1</t>
+  </si>
+  <si>
+    <t>(Info) condition: Release type: %1</t>
+  </si>
+  <si>
+    <t>(Info) environment: Screening of the screen: %1</t>
+  </si>
+  <si>
+    <t>(Info) environment: Screening ratio: %1:%2</t>
+  </si>
+  <si>
+    <t>(Info) environment: Applicable model:</t>
+  </si>
+  <si>
+    <t>(Info) Panic! An appropriate screen type that has not yet passed. The number of standard screens used to test the screen.</t>
+  </si>
+  <si>
+    <t>(Info) 尝试使用%1 Screen display model.</t>
+  </si>
+  <si>
+    <t>Owned screen display model city measurement test, unapproved.</t>
+  </si>
+  <si>
+    <t>(Info) Successful switching screen display model.</t>
+  </si>
+  <si>
+    <t>D3D: Internal movement. Introductory process of the new process.</t>
+  </si>
+  <si>
+    <t>D3D: Direct3D Immersive operation.</t>
+  </si>
+  <si>
+    <t>D3D: Direct3D Impossible distributive Effective for indigenous sounding.</t>
+  </si>
+  <si>
+    <t>D3D: Unsupported color operation type.</t>
+  </si>
+  <si>
+    <t>D3D: Unsupported color number.</t>
+  </si>
+  <si>
+    <t>D3D: Unsupported alpha traffic control type.</t>
+  </si>
+  <si>
+    <t>D3D: unsupported alpha commuter pass type.</t>
+  </si>
+  <si>
+    <t>D3D: Non-previous equipment unsupported research technology.</t>
+  </si>
+  <si>
+    <t>unused.</t>
+  </si>
+  <si>
+    <t>D3D: Not supported by the facility before this but a specified size or person display model.</t>
+  </si>
+  <si>
+    <t>D3D: unsupported directed compression method.</t>
+  </si>
+  <si>
+    <t>D3D: Direct3D child system internal development unknown 鯙误.</t>
+  </si>
+  <si>
+    <t>D3D: Unknown story.</t>
+  </si>
+  <si>
+    <t>%1 piece: [%2]\r\n %3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 piece: [%2]\n %3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 piece: [%2]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%4: 运行代缁在正在删Exclusively in progress, target %1[%2] / target occupancy: %3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported headline version book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Info) Feeling...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... already interrupted</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ... already interrupted [superscript limit system]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DrawGlyph Loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Panic! Layer Attribute method of attribute structure. Underdeveloped structure method?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown transition type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown Update type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update type: not supported tutGiveUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陙误代码：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>libpng 错误.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown color tone type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPEG Unsupported color adjustment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unknown color type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Matting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Save PNG time out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG pictures cannot be created province(_p) or person mask(_m) pictures universal transition rule.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupported color quantity: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data flag Mandatory 0 (proprietary flag Not supported by the previous capital)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported color types:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kakui unsupported outside golomb bit length table.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unsupported entropy editing method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG header An invalid or unsupported TLG version book.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag Consistently abnormal, long last name with small number of characters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag Consistently abnormal, minor minority sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag Consistently abnormal, with a low degree of backside.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLG SDS tag structure abnormal, tag rear face small number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Large and small 0.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Distribution of time of birth.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>读取文件时发生错误.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ineffective color printing case or non-existent name case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Non 16-bit Unicode font case.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid header edition.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6: Insufficiency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveTLG6:bit Long and large (possible reason.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible due to the lack of equipment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_RESTART</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_BADFLAGS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_BADPARAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_FAILED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_BADMODE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChangeDisplaySettings Lost: DISP_CHANGE_NOTUPDATED</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5563,83 +5563,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>脚本编辑器（主要）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能在加载插件时加载其它的插件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>触发硬件异常</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>触发脚本异常</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不是 Susie 插件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Susie 插件错误：%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクリプトで例外が発生しました</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脚本编辑器（异常通知）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未找到 krdevui.dll，因此无法手动选择文件夹或封包。\n请通过命令行手动指定目标文件夹或封包。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>krdevui.dll が異常か、バージョンが一致しません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>krdevui.dll加载失败或版本不匹配</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插件加载失败：%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插件卸载失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>異常な Susie プラグインです</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Susie プラグインでエラーが発生しました/エラーコード %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>%1 は読み込まれていません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プラグインでエラーが発生しました/%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插件出现错误：%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MCI でエラーが発生しました : %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>有効な SMF ファイルではありません : %1</t>
+    <t>Script editor (main)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible Exclusions When Exclusions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tactical hard case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Promotion screen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Susie Susie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Susie 诙件错误: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exception occurred in script</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Screen editor (notice of abnormalities)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愾来 krdevui.dll, CauseThis is an illegal manual selection. \n Requesting a request for passing a transaction, including a target statement or envelope.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>krdevui.dll is incorrect or version mismatch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>krdevui.dll Included loss or edition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compromised loss: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Losing wholesale sales</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unusual Susie plugin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An error occurred in the Susie plugin/error code %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%1 is not loaded</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error occurred in plugin/%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Appearance Appearance: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>An error occurred in MCI: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not a valid SMF file: %1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5647,227 +5647,227 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>创建 DirectSound 辅助缓冲区失败：%1/%2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无法加载 krmovie.dll。播放视频和 flash 需要 krmovie.dll/krflash.dll。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>krmovie.dll 出现错误：%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィンドウはすでに存在していません</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Window 已经不存在</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未在文件中找到插件所需要 %1 函数。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（info）已选择项目的目录：%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（info）已声明设置（越早声明的优先级更高）：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指点数位设备可用。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layer bitmap：出现缓冲区干涸，请检查你的渲染代码！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Layer bitmap：出现缓冲区溢出，请检查你的渲染代码！</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>warning : Image size too large. May be cannot create texture.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>warning : 图像尺寸过大。可能创建贴图会失败。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能分配 D3D 离屏 surface/HR=%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BasicDrawDevice: (inf) 多边形渲染失败/HR=%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BasicDrawDevice: (inf) IDirect3DDevice::Present 失败/HR=%1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>创建离屏（offscreen）DC 失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>创建离屏（offscreen）bitmap 失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>创建在屏（screen） DC 失败</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所给定的位图文件头不被 Susie 插件支持。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BasicDrawDevice: 创建 Direct3D 设备失败: %1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BasicDrawDevice: 创建 Direct3D 失败: 未知原因</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不支持超过 1 个以上的 layer 管理器 \"Basic Draw\"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（info）未找到 IDirect3D9 或更新的接口。获取正在使用的 Direct3D 驱动的信息。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>无法加载 d3d9.dll</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在 d3d9.dll 中未找到 Direct3DCreate9 函数。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（info）result： 候选：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>请选择 XP3 封包或文件夹。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：设备已失效，但当前无法进行重置。例如：有其他进程进行过独占式全屏或输出屏幕进行过切换。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：调用了无效的方法。例如：函数的参数不是一个有效的指针（pointer）。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：错误的纹理格式。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : デバイスがサポートしている数より多くのテクスチャ フィルタリング処理を、アプリケーションが要求しています</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：此应用程序正在请求进行多于设备支持数量的纹理过滤操作。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：当前纹理过滤不能同时使用。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：不支持的纹理因子值：未被使用或仅用于老旧设备。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：不能同时设置渲染状态。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：不支持的纹理过滤类型。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：不能同时使用当前纹理。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：未找到项目未找到。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : 指定されたバッファ サイズに保持できる以上のデータが存在します</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：可以声明更多的缓冲数据。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：设备已失效，当前可以进行重置。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : 要求されたデバイスの種類が無効です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：请求的设备类型无效。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : このサーフェスとの間で情報を転送している以前のビット演算が不完全です</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The previous blit operation that is transferring information to or from this surface is incomplete.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：正在进行 blit 操作或未完成操作。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : The device that returned this code caused the hardware adapter to be reset by the OS.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：硬件适配器被系统重置。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：当前设备不支持在指定的 surface 格式上 overlay。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：指定的内容无法被保护。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D : D3DERR_PRESENT_STATISTICS_DISJOINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：当前状态下无有序序列。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：硬件适配器已被移除。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：成功。但是，此格式不支持自动 mipmap。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D3D：回调函数接受到无效的参数。</t>
+    <t>Soken DirectSound 辅助缓冲庲区 Loss: %1/%2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unauthorized loading krmovie.dll. Flash release demand krmovie.dll/krflash.dll.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>krmovie.dll 出 Present错误: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window no longer exists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Window not already existed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Demand for unaffiliated cases in the case of demand office %1 function.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Info) Selected items target list: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Info) Established statement (Echihaya statement priority):</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Can be equipped with several finger points.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layer bitmap: Demonstration area, drought, billing fee!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Layer bitmap: Overflow of the current area, billing, and payment!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warning: Image size too large. May be cannot create texture.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warning: The image is oversized. Loss of possible architects.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible distribution D3D separation screen surface/HR=%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) Multi dimensional shape loss/HR=%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: (inf) IDirect3DDevice::Present Lost/HR=%1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>创建 separate screen (offscreen) DC loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>创建 separate screen (offscreen) bitmap loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>创建在屏（screen） DC loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Support for Susie remarks.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Soken Direct3D Equipment Failure: %1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BasicDrawDevice: Soken Direct3D Lost: Unknown Cause</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not supported Over 1 or more layer manager \"Basic Draw\"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Info) Not yet reached IDirect3D9 or updated contact. Masatoshi Naritori Direct3D active information.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unauthorized loading d3d9.dll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Present d3d9.dll Nakami's arrival Direct3DCreate9 function.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Info) result: Optional:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request XP3 Envelope or document.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The equipment has expired, but the illegal advance superposition has been added. For example: Yes Others Progress Progress Monopoly Ceremony or Export Screen Transition.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Ineffective method. For example: Incorrect one function function, effective pointer.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: A categorical rule.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The application is requesting more texture filtering than the device supports</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: This application is an orderly request, a request, a process, a device, a device, a device, a device, a device, and a quantity.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Used at the same time as non-exhaustive filtering.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: unsupported processing factor: unused or old equipment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Impossible at the same time.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Unsupported grammatical type.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Impossible same time before use.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Unexpected item Unexpected item.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: There is more data than can fit in the specified buffer size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: A good statement.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The equipment has expired, but it is possible to proceed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The requested device type is invalid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Inactive device type disabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The previous bit operation transferring information to or from this surface is incomplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The previous blit operation that is transferring information to or from this surface is incomplete.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Normal progress blit operation or incomplete operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: The device that returned this code caused the hardware adapter to be reset by the OS.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Hard Aligner System Stacking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: This is a designated surface that is not supported by the previous equipment.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Specified contents Unlawful protection.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: D3DERR_PRESENT_STATISTICS_DISJOINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Unordered sequence under the current state.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Hard disk controller already removed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Success. However, this type of expression is not supported by mipmap.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D3D: Number of adjustments received and received.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5875,15 +5875,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Break Point：触发断点。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不能在单窗口模式下显示弹窗。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弹窗已显示或无法显示。</t>
+    <t>Break Point: Breaking point.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Impossible to exist in Japan.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弹窗烗显示 or illicit disclosure.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5891,19 +5891,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Single Step: トレーストラップなどの単一命令メカニズムから 1 つの命令の実行が通知されました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Array Bounds Exceede: スレッドが範囲外の配列要素にアクセスしようとしました。使用中のハードウェアは境界チェックをサポートしています。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data Type Misalignment：线程尝试在未提供自动对齐的设备上写入未经对齐的数据。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Array Bounds Exceede：线程尝试越界访问数组元素，边界检查由硬件底层实现。</t>
+    <t>Single Step: A single instruction mechanism, such as a trace trap, signaled the execution of an instruction.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array Bounds Exceede: A thread tried to access an array element that is out of bounds. Your hardware supports bounds checking.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Type Misalignment: Not provided yet for trials.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Array Bounds Exceede: The number of elements, the number of elements, the number of elements, and the realization of the hard layer.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5947,51 +5947,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Guard Page：线程访问了分配在 PAGE_GUARD 修饰符上的内存。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illegal Instruction：线程尝试执行一个无效的指令集。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In Page Error: The thread tries to access a page that is not present, and the system is unable to load the page. For example, this exception might occur if a network connection is lost while running a program over a network.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>In Page Error：线程尝试访问不存在的内存页，且系统无法加载内存页。例如：当通过网络通信时网络断开，则可能触发此错误。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Divide By Zero：线程尝试用一个整数进行零除。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Underflow：浮点运算的指数小于相应类型允许的幅度。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stack Check：由于浮点操作，堆栈已溢出或正在溢出。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Overflow：浮点运算的指数大于相应类型允许的量值。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Invalid Operation：无效的运算符操作。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inexact Result：浮点运算的结果不能精确地表示为小数。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Divide By Zero：线程尝试用一个浮点数进行零除。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Denormal Operand：浮点运算操作数异常，由于异常值太小而无法表达为标准浮点值。</t>
+    <t>Guard Page: Itinerary for completion of process visits PAGE_GUARD Intrinsic in nature.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illegal Instruction: A set of invalid instructions.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In Page Error: The thread tries to access a page that is not present, and the system is unable to load the page.For example, this exception might occur if a network connection is lost while running a program over a network.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In Page Error: Non-existent and non-existent, and non-existent, intrinsic and non-existent. For example: This communication network is open and closed.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: Single integer advance zero removal for linear test.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Underflow: floating point arithmetic exponent.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stack Check: Yu Yu floating point operation, overflowed or standing overflow.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: Floating point arithmetic exponent Daiyu phase corresponding type 允许的量值.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Invalid Operation: Invalid arithmetic operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inexact Result: Floating point calculation result impossible precision display decimal point.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Divide By Zero: A single floating point number for a line test.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Denormal Operand: Floating point calculation operation number, yuan, yuan</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5999,23 +5999,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Single Step： 标志寄存器的TF位为1时，每执行一条指令就会引发该异常。主要用于单步调试。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Overflow：整数运算结果溢出。在某些情况下，这将导致某些操作无法设置进位标志。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Priv Instruction：线程尝试执行一条当前CPU模式下不允许的指令。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Access Violation：该线程尝试读取或写入一个无权访问的虚拟地址。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> = (触发异常)</t>
+    <t>Single Step: The TF is a TF-type, and it is a regular TF membership. Mainly used for single-step study.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Overflow: Integer calculation result overflow. Under the control of a certain trivial situation, this general guidance is a non-manipulative, illegal setting progress goal.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priv Instruction: Line Priority Test Line One-time-above CPU model unofficial command.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Access Violation: This line is a non-questionable virtual site.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = (Telephony)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
